--- a/01.Documents/Mẫu giấy tờ/Danh_sach_hoc_phi.xlsx
+++ b/01.Documents/Mẫu giấy tờ/Danh_sach_hoc_phi.xlsx
@@ -4,21 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="45" windowWidth="20115" windowHeight="7995" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="058-I" sheetId="1" r:id="rId1"/>
     <sheet name="058-II" sheetId="2" r:id="rId2"/>
     <sheet name="066-I" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="GD_PHIEU_THU" sheetId="4" r:id="rId4"/>
+    <sheet name="066-II" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="106">
   <si>
     <t>Giai đoạn I</t>
   </si>
@@ -150,9 +150,6 @@
     <t>Phạm Thị Thùy Ngân</t>
   </si>
   <si>
-    <t>Traabf Thị Thu Hiền</t>
-  </si>
-  <si>
     <t>Lớp : 066</t>
   </si>
   <si>
@@ -259,6 +256,87 @@
   </si>
   <si>
     <t>Trần Thị Phương</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>SO_PHIEU</t>
+  </si>
+  <si>
+    <t>ID_NGUOI_THU</t>
+  </si>
+  <si>
+    <t>ID_NGUOI_NHAP</t>
+  </si>
+  <si>
+    <t>TEN_NGUOI_NOP_TIEN</t>
+  </si>
+  <si>
+    <t>NOI_DUNG</t>
+  </si>
+  <si>
+    <t>SO_TIEN</t>
+  </si>
+  <si>
+    <t>NGAY_THU</t>
+  </si>
+  <si>
+    <t>NGAY_NHAP</t>
+  </si>
+  <si>
+    <t>ID_LOAI_PHIEU_THU</t>
+  </si>
+  <si>
+    <t>ID_TRANG_THAI</t>
+  </si>
+  <si>
+    <t>ID_GD_HOC</t>
+  </si>
+  <si>
+    <t>ID_SO_PHIEU_THU</t>
+  </si>
+  <si>
+    <t>GHI_CHU</t>
+  </si>
+  <si>
+    <t>LAN_THU</t>
+  </si>
+  <si>
+    <t>058-1</t>
+  </si>
+  <si>
+    <t>đóng tiền lần 1</t>
+  </si>
+  <si>
+    <t>tổng tiền</t>
+  </si>
+  <si>
+    <t>Nguyễn ĐÌnh Yên</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Toàn</t>
+  </si>
+  <si>
+    <t>đóng tiền lần 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">đóng tiền lần 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">đóng tiền lần 1  </t>
+  </si>
+  <si>
+    <t>058-2</t>
+  </si>
+  <si>
+    <t>066-1</t>
+  </si>
+  <si>
+    <t>đóng tiền lần 3</t>
+  </si>
+  <si>
+    <t>066-2</t>
   </si>
 </sst>
 </file>
@@ -274,7 +352,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -296,6 +374,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,38 +474,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -445,6 +502,35 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -741,8 +827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:M24"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -755,106 +841,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="5"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="24"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="6" t="s">
+      <c r="A2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="6" t="s">
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="7"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="21"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="17" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="9" t="s">
+      <c r="G3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="17" t="s">
         <v>10</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="9" t="s">
+      <c r="J3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
       <c r="F4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
       <c r="I4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1">
@@ -866,7 +952,7 @@
       <c r="C5" s="1">
         <v>2300000</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="3">
         <v>42355</v>
       </c>
       <c r="E5" s="1"/>
@@ -893,7 +979,7 @@
       <c r="C6" s="1">
         <v>3800000</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="3">
         <v>42355</v>
       </c>
       <c r="E6" s="1"/>
@@ -918,7 +1004,7 @@
       <c r="C7" s="1">
         <v>3800000</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="3">
         <v>42355</v>
       </c>
       <c r="E7" s="1"/>
@@ -943,14 +1029,14 @@
       <c r="C8" s="1">
         <v>880000</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="3">
         <v>42355</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1">
         <v>1300000</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="3">
         <v>42044</v>
       </c>
       <c r="H8" s="1"/>
@@ -972,7 +1058,7 @@
       <c r="C9" s="1">
         <v>2300000</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="3">
         <v>42355</v>
       </c>
       <c r="E9" s="1"/>
@@ -990,29 +1076,29 @@
       </c>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="16">
+      <c r="A10" s="7">
         <v>6</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="16">
+      <c r="C10" s="7">
         <v>1300000</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="8">
         <v>42357</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16">
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7">
         <v>2180000</v>
       </c>
-      <c r="M10" s="18"/>
+      <c r="M10" s="9"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1">
@@ -1024,14 +1110,14 @@
       <c r="C11" s="1">
         <v>1000000</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="3">
         <v>42357</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1">
         <v>1180000</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="3">
         <v>42044</v>
       </c>
       <c r="H11" s="1"/>
@@ -1053,14 +1139,14 @@
       <c r="C12" s="1">
         <v>880000</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="3">
         <v>42357</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1">
         <v>1300000</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="3">
         <v>42044</v>
       </c>
       <c r="H12" s="1"/>
@@ -1073,29 +1159,29 @@
       <c r="M12" s="2"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="16">
-        <v>9</v>
-      </c>
-      <c r="B13" s="16" t="s">
+      <c r="A13" s="7">
+        <v>9</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="7">
         <v>1000000</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="8">
         <v>42357</v>
       </c>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="16"/>
-      <c r="J13" s="16"/>
-      <c r="K13" s="16"/>
-      <c r="L13" s="16">
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7">
         <v>2180000</v>
       </c>
-      <c r="M13" s="18"/>
+      <c r="M13" s="9"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1">
@@ -1107,14 +1193,14 @@
       <c r="C14" s="1">
         <v>880000</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="3">
         <v>42357</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1">
         <v>1300000</v>
       </c>
-      <c r="G14" s="12">
+      <c r="G14" s="3">
         <v>42044</v>
       </c>
       <c r="H14" s="1"/>
@@ -1138,14 +1224,14 @@
       <c r="C15" s="1">
         <v>1000000</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="3">
         <v>42357</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1">
         <v>1180000</v>
       </c>
-      <c r="G15" s="12">
+      <c r="G15" s="3">
         <v>42044</v>
       </c>
       <c r="H15" s="1"/>
@@ -1167,14 +1253,14 @@
       <c r="C16" s="1">
         <v>1000000</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="3">
         <v>42357</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1">
         <v>1180000</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="3">
         <v>42044</v>
       </c>
       <c r="H16" s="1"/>
@@ -1196,14 +1282,14 @@
       <c r="C17" s="1">
         <v>880000</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="3">
         <v>42357</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1">
         <v>1300000</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="3">
         <v>42046</v>
       </c>
       <c r="H17" s="1"/>
@@ -1225,14 +1311,14 @@
       <c r="C18" s="1">
         <v>1000000</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="3">
         <v>42357</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1">
         <v>1180000</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="3">
         <v>42067</v>
       </c>
       <c r="H18" s="1"/>
@@ -1256,7 +1342,7 @@
       <c r="C19" s="1">
         <v>2300000</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="3">
         <v>42360</v>
       </c>
       <c r="E19" s="1"/>
@@ -1283,7 +1369,7 @@
       <c r="C20" s="1">
         <v>2180000</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="3">
         <v>42360</v>
       </c>
       <c r="E20" s="1"/>
@@ -1310,7 +1396,7 @@
       <c r="C21" s="1">
         <v>2300000</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="3">
         <v>42362</v>
       </c>
       <c r="E21" s="1"/>
@@ -1337,7 +1423,7 @@
       <c r="C22" s="1">
         <v>1000000</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="3">
         <v>42362</v>
       </c>
       <c r="E22" s="1"/>
@@ -1360,7 +1446,7 @@
       <c r="C23" s="1">
         <v>1000000</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="3">
         <v>42362</v>
       </c>
       <c r="E23" s="1"/>
@@ -1383,7 +1469,7 @@
       <c r="C24" s="1">
         <v>2180000</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="3">
         <v>42362</v>
       </c>
       <c r="E24" s="1"/>
@@ -1397,52 +1483,52 @@
       <c r="M24" s="2"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="19"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" s="19"/>
-      <c r="H25" s="19"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="20"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="11"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="19"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" s="19"/>
-      <c r="H26" s="19"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="20"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="I2:M2"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="M3:M4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="G3:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -1454,7 +1540,7 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D5" sqref="D5:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1467,106 +1553,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="5"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="24"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="6" t="s">
+      <c r="A2" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="6" t="s">
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="7"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="21"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="17" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="9" t="s">
+      <c r="G3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="17" t="s">
         <v>10</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="9" t="s">
+      <c r="J3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
       <c r="F4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
       <c r="I4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1">
@@ -1578,7 +1664,7 @@
       <c r="C5" s="1">
         <v>2800000</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="3">
         <v>42044</v>
       </c>
       <c r="E5" s="1"/>
@@ -1601,7 +1687,7 @@
       <c r="C6" s="1">
         <v>1000000</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="3">
         <v>42093</v>
       </c>
       <c r="E6" s="1"/>
@@ -1624,7 +1710,7 @@
       <c r="C7" s="1">
         <v>2800000</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="3">
         <v>42051</v>
       </c>
       <c r="E7" s="1"/>
@@ -1647,12 +1733,12 @@
       <c r="C8" s="1">
         <v>1000000</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="3">
         <v>42086</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="12"/>
+      <c r="G8" s="3"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -1670,7 +1756,7 @@
       <c r="C9" s="1">
         <v>2800000</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="3">
         <v>42093</v>
       </c>
       <c r="E9" s="1"/>
@@ -1684,27 +1770,27 @@
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="1:13">
-      <c r="A10" s="21">
+      <c r="A10" s="12">
         <v>6</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="21">
+      <c r="C10" s="12">
         <v>1000000</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="13">
         <v>42095</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="23"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="14"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1">
@@ -1716,12 +1802,12 @@
       <c r="C11" s="1">
         <v>1000000</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="3">
         <v>42095</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="12"/>
+      <c r="G11" s="3"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -1739,12 +1825,12 @@
       <c r="C12" s="1">
         <v>2800000</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="3">
         <v>42102</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="12"/>
+      <c r="G12" s="3"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -1753,27 +1839,27 @@
       <c r="M12" s="2"/>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="21">
-        <v>9</v>
-      </c>
-      <c r="B13" s="21" t="s">
+      <c r="A13" s="12">
+        <v>9</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="12">
         <v>2800000</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="13">
         <v>42114</v>
       </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="23"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="14"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1">
@@ -1785,12 +1871,12 @@
       <c r="C14" s="1">
         <v>1000000</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="3">
         <v>42114</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="12"/>
+      <c r="G14" s="3"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -1799,108 +1885,108 @@
       <c r="M14" s="2"/>
     </row>
     <row r="15" spans="1:13">
-      <c r="A15" s="13">
+      <c r="A15" s="4">
         <v>11</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="13">
+      <c r="C15" s="4">
         <v>2200000</v>
       </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13">
+      <c r="D15" s="5"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4">
         <v>2200000</v>
       </c>
-      <c r="M15" s="15" t="s">
+      <c r="M15" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:13">
-      <c r="A16" s="13">
+      <c r="A16" s="4">
         <v>12</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="13">
+      <c r="C16" s="4">
         <v>2200000</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="5">
         <v>42355</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13">
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4">
         <v>2200000</v>
       </c>
-      <c r="M16" s="15" t="s">
+      <c r="M16" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="13">
+      <c r="A17" s="4">
         <v>13</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="4">
         <v>2280000</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="5">
         <v>42360</v>
       </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13">
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4">
         <v>2280000</v>
       </c>
-      <c r="M17" s="15" t="s">
+      <c r="M17" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:13">
-      <c r="A18" s="13">
+      <c r="A18" s="4">
         <v>14</v>
       </c>
-      <c r="B18" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="C18" s="13">
+      <c r="B18" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C18" s="4">
         <v>2280000</v>
       </c>
-      <c r="D18" s="14">
+      <c r="D18" s="5">
         <v>42362</v>
       </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13">
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4">
         <v>2280000</v>
       </c>
-      <c r="M18" s="15" t="s">
+      <c r="M18" s="6" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1910,7 +1996,7 @@
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
-      <c r="D19" s="12"/>
+      <c r="D19" s="3"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
@@ -1927,7 +2013,7 @@
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
-      <c r="D20" s="12"/>
+      <c r="D20" s="3"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
@@ -1944,7 +2030,7 @@
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
-      <c r="D21" s="12"/>
+      <c r="D21" s="3"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
@@ -1961,7 +2047,7 @@
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
-      <c r="D22" s="12"/>
+      <c r="D22" s="3"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
@@ -1978,7 +2064,7 @@
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="12"/>
+      <c r="D23" s="3"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -1995,7 +2081,7 @@
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="12"/>
+      <c r="D24" s="3"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -2008,21 +2094,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="I2:M2"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="M3:M4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="G3:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2032,8 +2118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O9" sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2046,132 +2132,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="5"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="24"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="7"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="21"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="17" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="9" t="s">
+      <c r="G3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="17" t="s">
         <v>10</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="9" t="s">
+      <c r="J3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
       <c r="F4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
       <c r="I4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C5" s="1">
         <v>1000000</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="3">
         <v>42075</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1">
         <v>1200000</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="3">
         <v>42099</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1">
         <v>100000</v>
       </c>
-      <c r="J5" s="12">
+      <c r="J5" s="3">
         <v>42103</v>
       </c>
       <c r="K5" s="1"/>
@@ -2183,12 +2269,12 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C6" s="1">
         <v>1000000</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="3">
         <v>42075</v>
       </c>
       <c r="E6" s="1"/>
@@ -2208,12 +2294,12 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C7" s="1">
         <v>2300000</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="3">
         <v>42078</v>
       </c>
       <c r="E7" s="1"/>
@@ -2235,19 +2321,19 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C8" s="1">
         <v>1000000</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="3">
         <v>42075</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1">
         <v>1200000</v>
       </c>
-      <c r="G8" s="12">
+      <c r="G8" s="3">
         <v>42103</v>
       </c>
       <c r="H8" s="1"/>
@@ -2262,12 +2348,12 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" s="1">
         <v>2300000</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="3">
         <v>42075</v>
       </c>
       <c r="E9" s="1"/>
@@ -2280,45 +2366,45 @@
       <c r="L9" s="1"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="1:13" s="24" customFormat="1">
-      <c r="A10" s="21">
+    <row r="10" spans="1:13" s="15" customFormat="1">
+      <c r="A10" s="12">
         <v>6</v>
       </c>
-      <c r="B10" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="21">
+      <c r="B10" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="12">
         <v>2500000</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="13">
         <v>42078</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="23"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="14"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C11" s="1">
         <v>2300000</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="3">
         <v>42078</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="12"/>
+      <c r="G11" s="3"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -2331,17 +2417,17 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C12" s="1">
         <v>2300000</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="3">
         <v>42078</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="12"/>
+      <c r="G12" s="3"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -2349,28 +2435,28 @@
       <c r="L12" s="1"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="1:13" s="24" customFormat="1">
-      <c r="A13" s="21">
-        <v>9</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="C13" s="21">
+    <row r="13" spans="1:13" s="15" customFormat="1">
+      <c r="A13" s="12">
+        <v>9</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C13" s="12">
         <v>2300000</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="3">
         <v>42078</v>
       </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="23"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="14"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1">
@@ -2382,12 +2468,12 @@
       <c r="C14" s="1">
         <v>880000</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="3">
         <v>42078</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="12"/>
+      <c r="G14" s="3"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -2400,17 +2486,17 @@
         <v>11</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C15" s="1">
         <v>2180000</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="3">
         <v>42066</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="12"/>
+      <c r="G15" s="3"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -2427,17 +2513,17 @@
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C16" s="1">
         <v>2180000</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="3">
         <v>42066</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="12"/>
+      <c r="G16" s="3"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -2454,19 +2540,19 @@
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17" s="1">
         <v>1000000</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="3">
         <v>42071</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1">
         <v>1000000</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="3">
         <v>42101</v>
       </c>
       <c r="H17" s="1"/>
@@ -2483,17 +2569,17 @@
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C18" s="1">
         <v>2300000</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="3">
         <v>42071</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="12"/>
+      <c r="G18" s="3"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -2508,12 +2594,12 @@
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C19" s="1">
         <v>2180000</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="3">
         <v>42071</v>
       </c>
       <c r="E19" s="1"/>
@@ -2535,19 +2621,19 @@
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C20" s="1">
         <v>1000000</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="3">
         <v>42071</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1">
         <v>1180000</v>
       </c>
-      <c r="G20" s="12">
+      <c r="G20" s="3">
         <v>42082</v>
       </c>
       <c r="H20" s="1"/>
@@ -2564,12 +2650,12 @@
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C21" s="1">
         <v>1000000</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="3">
         <v>42071</v>
       </c>
       <c r="E21" s="1"/>
@@ -2589,12 +2675,12 @@
         <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C22" s="1">
         <v>1000000</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="3">
         <v>42071</v>
       </c>
       <c r="E22" s="1"/>
@@ -2614,12 +2700,12 @@
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C23" s="1">
         <v>2300000</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="3">
         <v>42071</v>
       </c>
       <c r="E23" s="1"/>
@@ -2641,12 +2727,12 @@
         <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C24" s="1">
         <v>2300000</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="3">
         <v>42073</v>
       </c>
       <c r="E24" s="1"/>
@@ -2664,16 +2750,16 @@
       </c>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="25">
+      <c r="A25" s="16">
         <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C25" s="1">
         <v>2300000</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="3">
         <v>42073</v>
       </c>
       <c r="E25" s="1"/>
@@ -2691,16 +2777,16 @@
       </c>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="25">
+      <c r="A26" s="16">
         <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C26" s="1">
         <v>2300000</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="3">
         <v>42073</v>
       </c>
       <c r="E26" s="1"/>
@@ -2718,23 +2804,23 @@
       </c>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="25">
+      <c r="A27" s="16">
         <v>23</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C27" s="1">
         <v>1000000</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="3">
         <v>42073</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1">
         <v>1180000</v>
       </c>
-      <c r="G27" s="12">
+      <c r="G27" s="3">
         <v>42099</v>
       </c>
       <c r="H27" s="1"/>
@@ -2747,23 +2833,23 @@
       <c r="M27" s="2"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="25">
+      <c r="A28" s="16">
         <v>24</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C28" s="1">
         <v>1380000</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="3">
         <v>42073</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1">
         <v>800000</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G28" s="3">
         <v>42096</v>
       </c>
       <c r="H28" s="1"/>
@@ -2776,23 +2862,23 @@
       <c r="M28" s="2"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="25">
+      <c r="A29" s="16">
         <v>25</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C29" s="1">
         <v>1000000</v>
       </c>
-      <c r="D29" s="12">
+      <c r="D29" s="3">
         <v>42073</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1">
         <v>1180000</v>
       </c>
-      <c r="G29" s="12">
+      <c r="G29" s="3">
         <v>42099</v>
       </c>
       <c r="H29" s="1"/>
@@ -2805,23 +2891,23 @@
       <c r="M29" s="2"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="25">
+      <c r="A30" s="16">
         <v>26</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C30" s="1">
         <v>1000000</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="3">
         <v>42073</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1">
         <v>1180000</v>
       </c>
-      <c r="G30" s="12">
+      <c r="G30" s="3">
         <v>42106</v>
       </c>
       <c r="H30" s="1"/>
@@ -2834,16 +2920,16 @@
       <c r="M30" s="2"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="25">
+      <c r="A31" s="16">
         <v>27</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C31" s="1">
         <v>2300000</v>
       </c>
-      <c r="D31" s="12">
+      <c r="D31" s="3">
         <v>42073</v>
       </c>
       <c r="E31" s="1"/>
@@ -2857,16 +2943,16 @@
       <c r="M31" s="2"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="25">
+      <c r="A32" s="16">
         <v>28</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C32" s="1">
         <v>2300000</v>
       </c>
-      <c r="D32" s="12">
+      <c r="D32" s="3">
         <v>42075</v>
       </c>
       <c r="E32" s="1"/>
@@ -2884,23 +2970,23 @@
       </c>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="25">
+      <c r="A33" s="16">
         <v>29</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C33" s="1">
         <v>1000000</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D33" s="3">
         <v>42075</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1">
         <v>1300000</v>
       </c>
-      <c r="G33" s="12">
+      <c r="G33" s="3">
         <v>42099</v>
       </c>
       <c r="H33" s="1"/>
@@ -2912,21 +2998,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="I2:M2"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="M3:M4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="G3:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2934,12 +3020,5897 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:O143"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2:O143"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
+    <col min="5" max="5" width="23.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+    <col min="7" max="7" width="10.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="12.5703125" customWidth="1"/>
+    <col min="10" max="10" width="19.42578125" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" customWidth="1"/>
+    <col min="13" max="13" width="17.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D2" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G2" s="1">
+        <v>2300000</v>
+      </c>
+      <c r="H2" s="3">
+        <v>42355</v>
+      </c>
+      <c r="I2" s="3">
+        <v>42355</v>
+      </c>
+      <c r="J2" s="1">
+        <v>26</v>
+      </c>
+      <c r="K2" s="1">
+        <v>9</v>
+      </c>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1">
+        <v>1</v>
+      </c>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D3" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" s="1">
+        <v>2300000</v>
+      </c>
+      <c r="H3" s="3">
+        <v>42005</v>
+      </c>
+      <c r="I3" s="3">
+        <v>42005</v>
+      </c>
+      <c r="J3" s="1">
+        <v>27</v>
+      </c>
+      <c r="K3" s="1">
+        <v>9</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1">
+        <v>1</v>
+      </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C4" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D4" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3800000</v>
+      </c>
+      <c r="H4" s="3">
+        <v>42355</v>
+      </c>
+      <c r="I4" s="3">
+        <v>42355</v>
+      </c>
+      <c r="J4" s="1">
+        <v>26</v>
+      </c>
+      <c r="K4" s="1">
+        <v>9</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1">
+        <v>1</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C5" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D5" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3800000</v>
+      </c>
+      <c r="H5" s="3">
+        <v>42355</v>
+      </c>
+      <c r="I5" s="3">
+        <v>42355</v>
+      </c>
+      <c r="J5" s="1">
+        <v>26</v>
+      </c>
+      <c r="K5" s="1">
+        <v>9</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D6" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G6" s="1">
+        <v>880000</v>
+      </c>
+      <c r="H6" s="3">
+        <v>42355</v>
+      </c>
+      <c r="I6" s="3">
+        <v>42355</v>
+      </c>
+      <c r="J6" s="1">
+        <v>26</v>
+      </c>
+      <c r="K6" s="1">
+        <v>9</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D7" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1300000</v>
+      </c>
+      <c r="H7" s="3">
+        <v>42044</v>
+      </c>
+      <c r="I7" s="3">
+        <v>42044</v>
+      </c>
+      <c r="J7" s="1">
+        <v>26</v>
+      </c>
+      <c r="K7" s="1">
+        <v>9</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1">
+        <v>1</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C8" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D8" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2180000</v>
+      </c>
+      <c r="H8" s="3">
+        <v>42064</v>
+      </c>
+      <c r="I8" s="3">
+        <v>42064</v>
+      </c>
+      <c r="J8" s="1">
+        <v>54</v>
+      </c>
+      <c r="K8" s="1">
+        <v>9</v>
+      </c>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1">
+        <v>1</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D9" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G9" s="1">
+        <v>2300000</v>
+      </c>
+      <c r="H9" s="3">
+        <v>42355</v>
+      </c>
+      <c r="I9" s="3">
+        <v>42355</v>
+      </c>
+      <c r="J9" s="1">
+        <v>26</v>
+      </c>
+      <c r="K9" s="1">
+        <v>9</v>
+      </c>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1">
+        <v>1</v>
+      </c>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D10" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" s="1">
+        <v>2300000</v>
+      </c>
+      <c r="H10" s="3">
+        <v>42005</v>
+      </c>
+      <c r="I10" s="3">
+        <v>42005</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1">
+        <v>9</v>
+      </c>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1">
+        <v>1</v>
+      </c>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D11" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1300000</v>
+      </c>
+      <c r="H11" s="3">
+        <v>42357</v>
+      </c>
+      <c r="I11" s="3">
+        <v>42357</v>
+      </c>
+      <c r="J11" s="1">
+        <v>26</v>
+      </c>
+      <c r="K11" s="1">
+        <v>9</v>
+      </c>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1">
+        <v>1</v>
+      </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D12" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2180000</v>
+      </c>
+      <c r="H12" s="3">
+        <v>42005</v>
+      </c>
+      <c r="I12" s="3">
+        <v>42005</v>
+      </c>
+      <c r="J12" s="1">
+        <v>54</v>
+      </c>
+      <c r="K12" s="1">
+        <v>9</v>
+      </c>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1">
+        <v>1</v>
+      </c>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C13" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D13" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="H13" s="3">
+        <v>42357</v>
+      </c>
+      <c r="I13" s="3">
+        <v>42357</v>
+      </c>
+      <c r="J13" s="1">
+        <v>26</v>
+      </c>
+      <c r="K13" s="1">
+        <v>9</v>
+      </c>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1">
+        <v>1</v>
+      </c>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D14" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1180000</v>
+      </c>
+      <c r="H14" s="3">
+        <v>42044</v>
+      </c>
+      <c r="I14" s="3">
+        <v>42044</v>
+      </c>
+      <c r="J14" s="1">
+        <v>26</v>
+      </c>
+      <c r="K14" s="1">
+        <v>9</v>
+      </c>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1">
+        <v>1</v>
+      </c>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C15" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D15" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G15" s="1">
+        <v>2180000</v>
+      </c>
+      <c r="H15" s="3">
+        <v>42005</v>
+      </c>
+      <c r="I15" s="3">
+        <v>42005</v>
+      </c>
+      <c r="J15" s="1">
+        <v>54</v>
+      </c>
+      <c r="K15" s="1">
+        <v>9</v>
+      </c>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1">
+        <v>1</v>
+      </c>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D16" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G16" s="1">
+        <v>880000</v>
+      </c>
+      <c r="H16" s="3">
+        <v>42357</v>
+      </c>
+      <c r="I16" s="3">
+        <v>42357</v>
+      </c>
+      <c r="J16" s="1">
+        <v>26</v>
+      </c>
+      <c r="K16" s="1">
+        <v>9</v>
+      </c>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1">
+        <v>1</v>
+      </c>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C17" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D17" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1300000</v>
+      </c>
+      <c r="H17" s="3">
+        <v>42044</v>
+      </c>
+      <c r="I17" s="3">
+        <v>42044</v>
+      </c>
+      <c r="J17" s="1">
+        <v>26</v>
+      </c>
+      <c r="K17" s="1">
+        <v>9</v>
+      </c>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1">
+        <v>1</v>
+      </c>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D18" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" s="1">
+        <v>2180000</v>
+      </c>
+      <c r="H18" s="3">
+        <v>42064</v>
+      </c>
+      <c r="I18" s="3">
+        <v>42064</v>
+      </c>
+      <c r="J18" s="1">
+        <v>54</v>
+      </c>
+      <c r="K18" s="1">
+        <v>9</v>
+      </c>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1">
+        <v>1</v>
+      </c>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="4">
+        <v>69747</v>
+      </c>
+      <c r="D19" s="4">
+        <v>69747</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G19" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="H19" s="5">
+        <v>42357</v>
+      </c>
+      <c r="I19" s="5">
+        <v>42357</v>
+      </c>
+      <c r="J19" s="4">
+        <v>26</v>
+      </c>
+      <c r="K19" s="1">
+        <v>9</v>
+      </c>
+      <c r="L19" s="4"/>
+      <c r="M19" s="1">
+        <v>1</v>
+      </c>
+      <c r="N19" s="4"/>
+      <c r="O19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C20" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D20" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G20" s="1">
+        <v>2180000</v>
+      </c>
+      <c r="H20" s="3">
+        <v>42005</v>
+      </c>
+      <c r="I20" s="3">
+        <v>42005</v>
+      </c>
+      <c r="J20" s="1">
+        <v>54</v>
+      </c>
+      <c r="K20" s="1">
+        <v>9</v>
+      </c>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1">
+        <v>1</v>
+      </c>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C21" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D21" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" s="1">
+        <v>880000</v>
+      </c>
+      <c r="H21" s="3">
+        <v>42357</v>
+      </c>
+      <c r="I21" s="3">
+        <v>42357</v>
+      </c>
+      <c r="J21" s="1">
+        <v>26</v>
+      </c>
+      <c r="K21" s="1">
+        <v>9</v>
+      </c>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1">
+        <v>1</v>
+      </c>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D22" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1300000</v>
+      </c>
+      <c r="H22" s="3">
+        <v>42039</v>
+      </c>
+      <c r="I22" s="3">
+        <v>42039</v>
+      </c>
+      <c r="J22" s="1">
+        <v>26</v>
+      </c>
+      <c r="K22" s="1">
+        <v>9</v>
+      </c>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1">
+        <v>1</v>
+      </c>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D23" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G23" s="1">
+        <v>2180000</v>
+      </c>
+      <c r="H23" s="3">
+        <v>42064</v>
+      </c>
+      <c r="I23" s="3">
+        <v>42064</v>
+      </c>
+      <c r="J23" s="1">
+        <v>54</v>
+      </c>
+      <c r="K23" s="1">
+        <v>9</v>
+      </c>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1">
+        <v>1</v>
+      </c>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C24" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D24" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="H24" s="3">
+        <v>42357</v>
+      </c>
+      <c r="I24" s="3">
+        <v>42357</v>
+      </c>
+      <c r="J24" s="1">
+        <v>26</v>
+      </c>
+      <c r="K24" s="1">
+        <v>9</v>
+      </c>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1">
+        <v>1</v>
+      </c>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C25" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D25" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1180000</v>
+      </c>
+      <c r="H25" s="3">
+        <v>42044</v>
+      </c>
+      <c r="I25" s="3">
+        <v>42044</v>
+      </c>
+      <c r="J25" s="1">
+        <v>26</v>
+      </c>
+      <c r="K25" s="1">
+        <v>9</v>
+      </c>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1">
+        <v>1</v>
+      </c>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D26" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G26" s="1">
+        <v>2180000</v>
+      </c>
+      <c r="H26" s="3">
+        <v>42064</v>
+      </c>
+      <c r="I26" s="3">
+        <v>42064</v>
+      </c>
+      <c r="J26" s="1">
+        <v>54</v>
+      </c>
+      <c r="K26" s="1">
+        <v>9</v>
+      </c>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1">
+        <v>1</v>
+      </c>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C27" s="4">
+        <v>69747</v>
+      </c>
+      <c r="D27" s="4">
+        <v>69747</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="G27" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="H27" s="5">
+        <v>42357</v>
+      </c>
+      <c r="I27" s="5">
+        <v>42357</v>
+      </c>
+      <c r="J27" s="4">
+        <v>26</v>
+      </c>
+      <c r="K27" s="1">
+        <v>9</v>
+      </c>
+      <c r="L27" s="4"/>
+      <c r="M27" s="1">
+        <v>1</v>
+      </c>
+      <c r="N27" s="4"/>
+      <c r="O27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C28" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D28" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G28" s="1">
+        <v>2180000</v>
+      </c>
+      <c r="H28" s="3">
+        <v>42005</v>
+      </c>
+      <c r="I28" s="3">
+        <v>42005</v>
+      </c>
+      <c r="J28" s="1">
+        <v>54</v>
+      </c>
+      <c r="K28" s="1">
+        <v>9</v>
+      </c>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1">
+        <v>1</v>
+      </c>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C29" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D29" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G29" s="1">
+        <v>880000</v>
+      </c>
+      <c r="H29" s="3">
+        <v>42357</v>
+      </c>
+      <c r="I29" s="3">
+        <v>42357</v>
+      </c>
+      <c r="J29" s="1">
+        <v>26</v>
+      </c>
+      <c r="K29" s="1">
+        <v>9</v>
+      </c>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1">
+        <v>1</v>
+      </c>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C30" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D30" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G30" s="1">
+        <v>1300000</v>
+      </c>
+      <c r="H30" s="3">
+        <v>42046</v>
+      </c>
+      <c r="I30" s="3">
+        <v>42046</v>
+      </c>
+      <c r="J30" s="1">
+        <v>26</v>
+      </c>
+      <c r="K30" s="1">
+        <v>9</v>
+      </c>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1">
+        <v>1</v>
+      </c>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D31" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G31" s="1">
+        <v>2180000</v>
+      </c>
+      <c r="H31" s="3">
+        <v>42064</v>
+      </c>
+      <c r="I31" s="3">
+        <v>42064</v>
+      </c>
+      <c r="J31" s="1">
+        <v>54</v>
+      </c>
+      <c r="K31" s="1">
+        <v>9</v>
+      </c>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1">
+        <v>1</v>
+      </c>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C32" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D32" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G32" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="H32" s="3">
+        <v>42357</v>
+      </c>
+      <c r="I32" s="3">
+        <v>42357</v>
+      </c>
+      <c r="J32" s="1">
+        <v>26</v>
+      </c>
+      <c r="K32" s="1">
+        <v>9</v>
+      </c>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1">
+        <v>1</v>
+      </c>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C33" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D33" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G33" s="1">
+        <v>1180000</v>
+      </c>
+      <c r="H33" s="3">
+        <v>42067</v>
+      </c>
+      <c r="I33" s="3">
+        <v>42067</v>
+      </c>
+      <c r="J33" s="1">
+        <v>26</v>
+      </c>
+      <c r="K33" s="1">
+        <v>9</v>
+      </c>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1">
+        <v>1</v>
+      </c>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D34" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G34" s="1">
+        <v>2180000</v>
+      </c>
+      <c r="H34" s="3">
+        <v>42095</v>
+      </c>
+      <c r="I34" s="3">
+        <v>42095</v>
+      </c>
+      <c r="J34" s="1">
+        <v>54</v>
+      </c>
+      <c r="K34" s="1">
+        <v>9</v>
+      </c>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1">
+        <v>1</v>
+      </c>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C35" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D35" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G35" s="1">
+        <v>2300000</v>
+      </c>
+      <c r="H35" s="3">
+        <v>42360</v>
+      </c>
+      <c r="I35" s="3">
+        <v>42360</v>
+      </c>
+      <c r="J35" s="1">
+        <v>26</v>
+      </c>
+      <c r="K35" s="1">
+        <v>9</v>
+      </c>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1">
+        <v>1</v>
+      </c>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D36" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G36" s="1">
+        <v>2300000</v>
+      </c>
+      <c r="H36" s="3">
+        <v>42005</v>
+      </c>
+      <c r="I36" s="3">
+        <v>42005</v>
+      </c>
+      <c r="J36" s="1">
+        <v>27</v>
+      </c>
+      <c r="K36" s="1">
+        <v>9</v>
+      </c>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1">
+        <v>1</v>
+      </c>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D37" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G37" s="1">
+        <v>2180000</v>
+      </c>
+      <c r="H37" s="3">
+        <v>42360</v>
+      </c>
+      <c r="I37" s="3">
+        <v>42360</v>
+      </c>
+      <c r="J37" s="1">
+        <v>26</v>
+      </c>
+      <c r="K37" s="1">
+        <v>9</v>
+      </c>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1">
+        <v>1</v>
+      </c>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C38" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D38" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G38" s="1">
+        <v>2180000</v>
+      </c>
+      <c r="H38" s="3">
+        <v>42005</v>
+      </c>
+      <c r="I38" s="3">
+        <v>42005</v>
+      </c>
+      <c r="J38" s="1">
+        <v>54</v>
+      </c>
+      <c r="K38" s="1">
+        <v>9</v>
+      </c>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1">
+        <v>1</v>
+      </c>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D39" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G39" s="1">
+        <v>2300000</v>
+      </c>
+      <c r="H39" s="3">
+        <v>42362</v>
+      </c>
+      <c r="I39" s="3">
+        <v>42362</v>
+      </c>
+      <c r="J39" s="1">
+        <v>26</v>
+      </c>
+      <c r="K39" s="1">
+        <v>9</v>
+      </c>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1">
+        <v>1</v>
+      </c>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D40" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G40" s="1">
+        <v>2300000</v>
+      </c>
+      <c r="H40" s="3">
+        <v>42005</v>
+      </c>
+      <c r="I40" s="3">
+        <v>42005</v>
+      </c>
+      <c r="J40" s="1">
+        <v>54</v>
+      </c>
+      <c r="K40" s="1">
+        <v>9</v>
+      </c>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1">
+        <v>1</v>
+      </c>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D41" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G41" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="H41" s="3">
+        <v>42362</v>
+      </c>
+      <c r="I41" s="3">
+        <v>42362</v>
+      </c>
+      <c r="J41" s="1">
+        <v>26</v>
+      </c>
+      <c r="K41" s="1">
+        <v>9</v>
+      </c>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1">
+        <v>1</v>
+      </c>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D42" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G42" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="H42" s="3">
+        <v>42362</v>
+      </c>
+      <c r="I42" s="3">
+        <v>42362</v>
+      </c>
+      <c r="J42" s="1">
+        <v>26</v>
+      </c>
+      <c r="K42" s="1">
+        <v>9</v>
+      </c>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1">
+        <v>1</v>
+      </c>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D43" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G43" s="1">
+        <v>2180000</v>
+      </c>
+      <c r="H43" s="3">
+        <v>42362</v>
+      </c>
+      <c r="I43" s="3">
+        <v>42362</v>
+      </c>
+      <c r="J43" s="1">
+        <v>26</v>
+      </c>
+      <c r="K43" s="1">
+        <v>9</v>
+      </c>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1">
+        <v>1</v>
+      </c>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C44" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D44" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G44" s="1">
+        <v>2800000</v>
+      </c>
+      <c r="H44" s="3">
+        <v>42044</v>
+      </c>
+      <c r="I44" s="3">
+        <v>42044</v>
+      </c>
+      <c r="J44" s="1">
+        <v>26</v>
+      </c>
+      <c r="K44" s="1">
+        <v>9</v>
+      </c>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1">
+        <v>1</v>
+      </c>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C45" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D45" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G45" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="H45" s="3">
+        <v>42093</v>
+      </c>
+      <c r="I45" s="3">
+        <v>42093</v>
+      </c>
+      <c r="J45" s="1">
+        <v>26</v>
+      </c>
+      <c r="K45" s="1">
+        <v>9</v>
+      </c>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1">
+        <v>1</v>
+      </c>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C46" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D46" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G46" s="1">
+        <v>2800000</v>
+      </c>
+      <c r="H46" s="3">
+        <v>42051</v>
+      </c>
+      <c r="I46" s="3">
+        <v>42051</v>
+      </c>
+      <c r="J46" s="1">
+        <v>26</v>
+      </c>
+      <c r="K46" s="1">
+        <v>9</v>
+      </c>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1">
+        <v>1</v>
+      </c>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C47" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D47" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G47" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="H47" s="3">
+        <v>42086</v>
+      </c>
+      <c r="I47" s="3">
+        <v>42086</v>
+      </c>
+      <c r="J47" s="1">
+        <v>26</v>
+      </c>
+      <c r="K47" s="1">
+        <v>9</v>
+      </c>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1">
+        <v>1</v>
+      </c>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D48" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G48" s="1">
+        <v>2800000</v>
+      </c>
+      <c r="H48" s="3">
+        <v>42093</v>
+      </c>
+      <c r="I48" s="3">
+        <v>42093</v>
+      </c>
+      <c r="J48" s="1">
+        <v>26</v>
+      </c>
+      <c r="K48" s="1">
+        <v>9</v>
+      </c>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1">
+        <v>1</v>
+      </c>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D49" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G49" s="12">
+        <v>1000000</v>
+      </c>
+      <c r="H49" s="13">
+        <v>42095</v>
+      </c>
+      <c r="I49" s="13">
+        <v>42095</v>
+      </c>
+      <c r="J49" s="1">
+        <v>26</v>
+      </c>
+      <c r="K49" s="1">
+        <v>9</v>
+      </c>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1">
+        <v>1</v>
+      </c>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D50" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G50" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="H50" s="3">
+        <v>42095</v>
+      </c>
+      <c r="I50" s="3">
+        <v>42095</v>
+      </c>
+      <c r="J50" s="1">
+        <v>26</v>
+      </c>
+      <c r="K50" s="1">
+        <v>9</v>
+      </c>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1">
+        <v>1</v>
+      </c>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D51" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G51" s="1">
+        <v>2800000</v>
+      </c>
+      <c r="H51" s="3">
+        <v>42102</v>
+      </c>
+      <c r="I51" s="3">
+        <v>42102</v>
+      </c>
+      <c r="J51" s="1">
+        <v>26</v>
+      </c>
+      <c r="K51" s="1">
+        <v>9</v>
+      </c>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1">
+        <v>1</v>
+      </c>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C52" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D52" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G52" s="12">
+        <v>2800000</v>
+      </c>
+      <c r="H52" s="13">
+        <v>42114</v>
+      </c>
+      <c r="I52" s="13">
+        <v>42114</v>
+      </c>
+      <c r="J52" s="1">
+        <v>26</v>
+      </c>
+      <c r="K52" s="1">
+        <v>9</v>
+      </c>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1">
+        <v>1</v>
+      </c>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D53" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G53" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="H53" s="3">
+        <v>42114</v>
+      </c>
+      <c r="I53" s="3">
+        <v>42114</v>
+      </c>
+      <c r="J53" s="1">
+        <v>26</v>
+      </c>
+      <c r="K53" s="1">
+        <v>9</v>
+      </c>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1">
+        <v>1</v>
+      </c>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
+      <c r="A54" s="26"/>
+      <c r="B54" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C54" s="26">
+        <v>69747</v>
+      </c>
+      <c r="D54" s="26">
+        <v>69747</v>
+      </c>
+      <c r="E54" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="G54" s="26">
+        <v>2200000</v>
+      </c>
+      <c r="H54" s="27">
+        <v>42114</v>
+      </c>
+      <c r="I54" s="27">
+        <v>42114</v>
+      </c>
+      <c r="J54" s="26">
+        <v>26</v>
+      </c>
+      <c r="K54" s="1">
+        <v>9</v>
+      </c>
+      <c r="L54" s="26"/>
+      <c r="M54" s="1">
+        <v>1</v>
+      </c>
+      <c r="N54" s="26"/>
+      <c r="O54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
+      <c r="A55" s="12"/>
+      <c r="B55" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C55" s="12">
+        <v>69747</v>
+      </c>
+      <c r="D55" s="12">
+        <v>69747</v>
+      </c>
+      <c r="E55" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G55" s="12">
+        <v>2200000</v>
+      </c>
+      <c r="H55" s="27">
+        <v>42114</v>
+      </c>
+      <c r="I55" s="27">
+        <v>42114</v>
+      </c>
+      <c r="J55" s="12">
+        <v>54</v>
+      </c>
+      <c r="K55" s="1">
+        <v>9</v>
+      </c>
+      <c r="L55" s="12"/>
+      <c r="M55" s="1">
+        <v>1</v>
+      </c>
+      <c r="N55" s="12"/>
+      <c r="O55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
+      <c r="A56" s="1"/>
+      <c r="B56" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C56" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D56" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G56" s="12">
+        <v>2200000</v>
+      </c>
+      <c r="H56" s="13">
+        <v>42355</v>
+      </c>
+      <c r="I56" s="13">
+        <v>42355</v>
+      </c>
+      <c r="J56" s="1">
+        <v>26</v>
+      </c>
+      <c r="K56" s="1">
+        <v>9</v>
+      </c>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1">
+        <v>1</v>
+      </c>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
+      <c r="A57" s="1"/>
+      <c r="B57" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C57" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D57" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E57" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G57" s="12">
+        <v>2200000</v>
+      </c>
+      <c r="H57" s="13">
+        <v>42005</v>
+      </c>
+      <c r="I57" s="13">
+        <v>42005</v>
+      </c>
+      <c r="J57" s="1">
+        <v>54</v>
+      </c>
+      <c r="K57" s="1">
+        <v>9</v>
+      </c>
+      <c r="L57" s="1"/>
+      <c r="M57" s="1">
+        <v>1</v>
+      </c>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
+      <c r="A58" s="1"/>
+      <c r="B58" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C58" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D58" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G58" s="12">
+        <v>2280000</v>
+      </c>
+      <c r="H58" s="13">
+        <v>42360</v>
+      </c>
+      <c r="I58" s="13">
+        <v>42360</v>
+      </c>
+      <c r="J58" s="1">
+        <v>26</v>
+      </c>
+      <c r="K58" s="1">
+        <v>9</v>
+      </c>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1">
+        <v>1</v>
+      </c>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
+      <c r="A59" s="1"/>
+      <c r="B59" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C59" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D59" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G59" s="12">
+        <v>2280000</v>
+      </c>
+      <c r="H59" s="13">
+        <v>42005</v>
+      </c>
+      <c r="I59" s="13">
+        <v>42005</v>
+      </c>
+      <c r="J59" s="1">
+        <v>54</v>
+      </c>
+      <c r="K59" s="1">
+        <v>9</v>
+      </c>
+      <c r="L59" s="1"/>
+      <c r="M59" s="1">
+        <v>1</v>
+      </c>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
+      <c r="A60" s="1"/>
+      <c r="B60" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C60" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D60" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E60" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G60" s="12">
+        <v>2280000</v>
+      </c>
+      <c r="H60" s="13">
+        <v>42362</v>
+      </c>
+      <c r="I60" s="13">
+        <v>42362</v>
+      </c>
+      <c r="J60" s="1">
+        <v>26</v>
+      </c>
+      <c r="K60" s="1">
+        <v>9</v>
+      </c>
+      <c r="L60" s="1"/>
+      <c r="M60" s="1">
+        <v>1</v>
+      </c>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
+      <c r="A61" s="1"/>
+      <c r="B61" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C61" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D61" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E61" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G61" s="12">
+        <v>2280000</v>
+      </c>
+      <c r="H61" s="13">
+        <v>42005</v>
+      </c>
+      <c r="I61" s="13">
+        <v>42005</v>
+      </c>
+      <c r="J61" s="1">
+        <v>54</v>
+      </c>
+      <c r="K61" s="1">
+        <v>9</v>
+      </c>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1">
+        <v>1</v>
+      </c>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
+      <c r="A62" s="1"/>
+      <c r="B62" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C62" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D62" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G62" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="H62" s="3">
+        <v>42075</v>
+      </c>
+      <c r="I62" s="3">
+        <v>42075</v>
+      </c>
+      <c r="J62" s="1">
+        <v>26</v>
+      </c>
+      <c r="K62" s="1">
+        <v>9</v>
+      </c>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1">
+        <v>1</v>
+      </c>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
+      <c r="A63" s="1"/>
+      <c r="B63" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C63" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D63" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G63" s="1">
+        <v>1200000</v>
+      </c>
+      <c r="H63" s="3">
+        <v>42099</v>
+      </c>
+      <c r="I63" s="3">
+        <v>42099</v>
+      </c>
+      <c r="J63" s="1">
+        <v>26</v>
+      </c>
+      <c r="K63" s="1">
+        <v>9</v>
+      </c>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1">
+        <v>1</v>
+      </c>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
+      <c r="A64" s="1"/>
+      <c r="B64" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C64" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D64" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G64" s="1">
+        <v>100000</v>
+      </c>
+      <c r="H64" s="3">
+        <v>42103</v>
+      </c>
+      <c r="I64" s="3">
+        <v>42103</v>
+      </c>
+      <c r="J64" s="1">
+        <v>26</v>
+      </c>
+      <c r="K64" s="1">
+        <v>9</v>
+      </c>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1">
+        <v>1</v>
+      </c>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
+      <c r="A65" s="1"/>
+      <c r="B65" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C65" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D65" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G65" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="H65" s="3">
+        <v>42075</v>
+      </c>
+      <c r="I65" s="3">
+        <v>42075</v>
+      </c>
+      <c r="J65" s="1">
+        <v>26</v>
+      </c>
+      <c r="K65" s="1">
+        <v>9</v>
+      </c>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1">
+        <v>1</v>
+      </c>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
+      <c r="A66" s="26"/>
+      <c r="B66" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C66" s="26">
+        <v>69747</v>
+      </c>
+      <c r="D66" s="26">
+        <v>69747</v>
+      </c>
+      <c r="E66" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="F66" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="G66" s="26">
+        <v>1300000</v>
+      </c>
+      <c r="H66" s="27">
+        <v>42075</v>
+      </c>
+      <c r="I66" s="27">
+        <v>42075</v>
+      </c>
+      <c r="J66" s="26">
+        <v>26</v>
+      </c>
+      <c r="K66" s="1">
+        <v>9</v>
+      </c>
+      <c r="L66" s="26"/>
+      <c r="M66" s="1">
+        <v>1</v>
+      </c>
+      <c r="N66" s="26"/>
+      <c r="O66" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
+      <c r="A67" s="1"/>
+      <c r="B67" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C67" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D67" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G67" s="1">
+        <v>2300000</v>
+      </c>
+      <c r="H67" s="3">
+        <v>42078</v>
+      </c>
+      <c r="I67" s="3">
+        <v>42078</v>
+      </c>
+      <c r="J67" s="1">
+        <v>26</v>
+      </c>
+      <c r="K67" s="1">
+        <v>9</v>
+      </c>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1">
+        <v>1</v>
+      </c>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
+      <c r="A68" s="1"/>
+      <c r="B68" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C68" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D68" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G68" s="1">
+        <v>2300000</v>
+      </c>
+      <c r="H68" s="3">
+        <v>42095</v>
+      </c>
+      <c r="I68" s="3">
+        <v>42095</v>
+      </c>
+      <c r="J68" s="1">
+        <v>27</v>
+      </c>
+      <c r="K68" s="1">
+        <v>9</v>
+      </c>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1">
+        <v>1</v>
+      </c>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
+      <c r="A69" s="1"/>
+      <c r="B69" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C69" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D69" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G69" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="H69" s="3">
+        <v>42075</v>
+      </c>
+      <c r="I69" s="3">
+        <v>42075</v>
+      </c>
+      <c r="J69" s="1">
+        <v>26</v>
+      </c>
+      <c r="K69" s="1">
+        <v>9</v>
+      </c>
+      <c r="L69" s="1"/>
+      <c r="M69" s="1">
+        <v>1</v>
+      </c>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
+      <c r="A70" s="1"/>
+      <c r="B70" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C70" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D70" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G70" s="1">
+        <v>1200000</v>
+      </c>
+      <c r="H70" s="3">
+        <v>42103</v>
+      </c>
+      <c r="I70" s="3">
+        <v>42103</v>
+      </c>
+      <c r="J70" s="1">
+        <v>26</v>
+      </c>
+      <c r="K70" s="1">
+        <v>9</v>
+      </c>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1">
+        <v>1</v>
+      </c>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
+      <c r="A71" s="1"/>
+      <c r="B71" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C71" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D71" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G71" s="1">
+        <v>2300000</v>
+      </c>
+      <c r="H71" s="3">
+        <v>42075</v>
+      </c>
+      <c r="I71" s="3">
+        <v>42075</v>
+      </c>
+      <c r="J71" s="1">
+        <v>26</v>
+      </c>
+      <c r="K71" s="1">
+        <v>9</v>
+      </c>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1">
+        <v>1</v>
+      </c>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
+      <c r="A72" s="1"/>
+      <c r="B72" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C72" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D72" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G72" s="12">
+        <v>2500000</v>
+      </c>
+      <c r="H72" s="13">
+        <v>42078</v>
+      </c>
+      <c r="I72" s="13">
+        <v>42078</v>
+      </c>
+      <c r="J72" s="1">
+        <v>26</v>
+      </c>
+      <c r="K72" s="1">
+        <v>9</v>
+      </c>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1">
+        <v>1</v>
+      </c>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
+      <c r="A73" s="1"/>
+      <c r="B73" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C73" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D73" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G73" s="1">
+        <v>2300000</v>
+      </c>
+      <c r="H73" s="3">
+        <v>42078</v>
+      </c>
+      <c r="I73" s="3">
+        <v>42078</v>
+      </c>
+      <c r="J73" s="1">
+        <v>26</v>
+      </c>
+      <c r="K73" s="1">
+        <v>9</v>
+      </c>
+      <c r="L73" s="1"/>
+      <c r="M73" s="1">
+        <v>1</v>
+      </c>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
+      <c r="A74" s="1"/>
+      <c r="B74" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C74" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D74" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G74" s="1">
+        <v>2300000</v>
+      </c>
+      <c r="H74" s="3">
+        <v>42078</v>
+      </c>
+      <c r="I74" s="3">
+        <v>42078</v>
+      </c>
+      <c r="J74" s="1">
+        <v>26</v>
+      </c>
+      <c r="K74" s="1">
+        <v>9</v>
+      </c>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1">
+        <v>1</v>
+      </c>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
+      <c r="A75" s="1"/>
+      <c r="B75" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C75" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D75" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G75" s="12">
+        <v>2300000</v>
+      </c>
+      <c r="H75" s="3">
+        <v>42078</v>
+      </c>
+      <c r="I75" s="3">
+        <v>42078</v>
+      </c>
+      <c r="J75" s="1">
+        <v>26</v>
+      </c>
+      <c r="K75" s="1">
+        <v>9</v>
+      </c>
+      <c r="L75" s="1"/>
+      <c r="M75" s="1">
+        <v>1</v>
+      </c>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
+      <c r="A76" s="1"/>
+      <c r="B76" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C76" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D76" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G76" s="1">
+        <v>880000</v>
+      </c>
+      <c r="H76" s="3">
+        <v>42078</v>
+      </c>
+      <c r="I76" s="3">
+        <v>42078</v>
+      </c>
+      <c r="J76" s="1">
+        <v>26</v>
+      </c>
+      <c r="K76" s="1">
+        <v>9</v>
+      </c>
+      <c r="L76" s="1"/>
+      <c r="M76" s="1">
+        <v>1</v>
+      </c>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
+      <c r="A77" s="1"/>
+      <c r="B77" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C77" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D77" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G77" s="1">
+        <v>2180000</v>
+      </c>
+      <c r="H77" s="3">
+        <v>42066</v>
+      </c>
+      <c r="I77" s="3">
+        <v>42066</v>
+      </c>
+      <c r="J77" s="1">
+        <v>26</v>
+      </c>
+      <c r="K77" s="1">
+        <v>9</v>
+      </c>
+      <c r="L77" s="1"/>
+      <c r="M77" s="1">
+        <v>1</v>
+      </c>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
+      <c r="A78" s="1"/>
+      <c r="B78" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D78" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G78" s="1">
+        <v>2180000</v>
+      </c>
+      <c r="H78" s="3">
+        <v>42095</v>
+      </c>
+      <c r="I78" s="3">
+        <v>42095</v>
+      </c>
+      <c r="J78" s="1">
+        <v>54</v>
+      </c>
+      <c r="K78" s="1">
+        <v>9</v>
+      </c>
+      <c r="L78" s="1"/>
+      <c r="M78" s="1">
+        <v>1</v>
+      </c>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
+      <c r="A79" s="1"/>
+      <c r="B79" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C79" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D79" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G79" s="1">
+        <v>2180000</v>
+      </c>
+      <c r="H79" s="3">
+        <v>42066</v>
+      </c>
+      <c r="I79" s="3">
+        <v>42066</v>
+      </c>
+      <c r="J79" s="1">
+        <v>26</v>
+      </c>
+      <c r="K79" s="1">
+        <v>9</v>
+      </c>
+      <c r="L79" s="1"/>
+      <c r="M79" s="1">
+        <v>1</v>
+      </c>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
+      <c r="A80" s="1"/>
+      <c r="B80" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C80" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D80" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G80" s="1">
+        <v>2180000</v>
+      </c>
+      <c r="H80" s="3">
+        <v>42095</v>
+      </c>
+      <c r="I80" s="3">
+        <v>42095</v>
+      </c>
+      <c r="J80" s="1">
+        <v>54</v>
+      </c>
+      <c r="K80" s="1">
+        <v>9</v>
+      </c>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1">
+        <v>1</v>
+      </c>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
+      <c r="A81" s="4"/>
+      <c r="B81" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C81" s="4">
+        <v>69747</v>
+      </c>
+      <c r="D81" s="4">
+        <v>69747</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G81" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="H81" s="5">
+        <v>42071</v>
+      </c>
+      <c r="I81" s="5">
+        <v>42071</v>
+      </c>
+      <c r="J81" s="4">
+        <v>26</v>
+      </c>
+      <c r="K81" s="1">
+        <v>9</v>
+      </c>
+      <c r="L81" s="4"/>
+      <c r="M81" s="1">
+        <v>1</v>
+      </c>
+      <c r="N81" s="4"/>
+      <c r="O81" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
+      <c r="A82" s="1"/>
+      <c r="B82" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C82" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D82" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G82" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="H82" s="3">
+        <v>42101</v>
+      </c>
+      <c r="I82" s="3">
+        <v>42101</v>
+      </c>
+      <c r="J82" s="1">
+        <v>26</v>
+      </c>
+      <c r="K82" s="1">
+        <v>9</v>
+      </c>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1">
+        <v>1</v>
+      </c>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C83" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D83" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G83" s="1">
+        <v>2180000</v>
+      </c>
+      <c r="H83" s="3">
+        <v>42125</v>
+      </c>
+      <c r="I83" s="3">
+        <v>42125</v>
+      </c>
+      <c r="J83" s="1">
+        <v>54</v>
+      </c>
+      <c r="K83" s="1">
+        <v>9</v>
+      </c>
+      <c r="L83" s="1"/>
+      <c r="M83" s="1">
+        <v>1</v>
+      </c>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
+      <c r="A84" s="1"/>
+      <c r="B84" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C84" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D84" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F84" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G84" s="1">
+        <v>2300000</v>
+      </c>
+      <c r="H84" s="3">
+        <v>42071</v>
+      </c>
+      <c r="I84" s="3">
+        <v>42071</v>
+      </c>
+      <c r="J84" s="1">
+        <v>26</v>
+      </c>
+      <c r="K84" s="1">
+        <v>9</v>
+      </c>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1">
+        <v>1</v>
+      </c>
+      <c r="N84" s="1"/>
+      <c r="O84" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
+      <c r="A85" s="1"/>
+      <c r="B85" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C85" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D85" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G85" s="1">
+        <v>2300000</v>
+      </c>
+      <c r="H85" s="3">
+        <v>42095</v>
+      </c>
+      <c r="I85" s="3">
+        <v>42095</v>
+      </c>
+      <c r="J85" s="1">
+        <v>27</v>
+      </c>
+      <c r="K85" s="1">
+        <v>9</v>
+      </c>
+      <c r="L85" s="1"/>
+      <c r="M85" s="1">
+        <v>1</v>
+      </c>
+      <c r="N85" s="1"/>
+      <c r="O85" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
+      <c r="A86" s="1"/>
+      <c r="B86" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C86" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D86" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F86" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G86" s="1">
+        <v>2180000</v>
+      </c>
+      <c r="H86" s="3">
+        <v>42071</v>
+      </c>
+      <c r="I86" s="3">
+        <v>42071</v>
+      </c>
+      <c r="J86" s="1">
+        <v>26</v>
+      </c>
+      <c r="K86" s="1">
+        <v>9</v>
+      </c>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1">
+        <v>1</v>
+      </c>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
+      <c r="A87" s="1"/>
+      <c r="B87" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C87" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D87" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G87" s="1">
+        <v>2180000</v>
+      </c>
+      <c r="H87" s="3">
+        <v>42095</v>
+      </c>
+      <c r="I87" s="3">
+        <v>42095</v>
+      </c>
+      <c r="J87" s="1">
+        <v>54</v>
+      </c>
+      <c r="K87" s="1">
+        <v>9</v>
+      </c>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1">
+        <v>1</v>
+      </c>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
+      <c r="A88" s="1"/>
+      <c r="B88" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C88" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D88" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F88" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G88" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="H88" s="3">
+        <v>42071</v>
+      </c>
+      <c r="I88" s="3">
+        <v>42071</v>
+      </c>
+      <c r="J88" s="1">
+        <v>26</v>
+      </c>
+      <c r="K88" s="1">
+        <v>9</v>
+      </c>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1">
+        <v>1</v>
+      </c>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
+      <c r="A89" s="1"/>
+      <c r="B89" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C89" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D89" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F89" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G89" s="1">
+        <v>1180000</v>
+      </c>
+      <c r="H89" s="3">
+        <v>42082</v>
+      </c>
+      <c r="I89" s="3">
+        <v>42082</v>
+      </c>
+      <c r="J89" s="1">
+        <v>26</v>
+      </c>
+      <c r="K89" s="1">
+        <v>9</v>
+      </c>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1">
+        <v>1</v>
+      </c>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
+      <c r="A90" s="1"/>
+      <c r="B90" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C90" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D90" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G90" s="1">
+        <v>2180000</v>
+      </c>
+      <c r="H90" s="3">
+        <v>42095</v>
+      </c>
+      <c r="I90" s="3">
+        <v>42095</v>
+      </c>
+      <c r="J90" s="1">
+        <v>54</v>
+      </c>
+      <c r="K90" s="1">
+        <v>9</v>
+      </c>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1">
+        <v>1</v>
+      </c>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
+      <c r="A91" s="4"/>
+      <c r="B91" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C91" s="4">
+        <v>69747</v>
+      </c>
+      <c r="D91" s="4">
+        <v>69747</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G91" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="H91" s="5">
+        <v>42071</v>
+      </c>
+      <c r="I91" s="5">
+        <v>42071</v>
+      </c>
+      <c r="J91" s="4">
+        <v>26</v>
+      </c>
+      <c r="K91" s="1">
+        <v>9</v>
+      </c>
+      <c r="L91" s="4"/>
+      <c r="M91" s="1">
+        <v>1</v>
+      </c>
+      <c r="N91" s="4"/>
+      <c r="O91" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
+      <c r="A92" s="4"/>
+      <c r="B92" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C92" s="4">
+        <v>69747</v>
+      </c>
+      <c r="D92" s="4">
+        <v>69747</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G92" s="4">
+        <v>2180000</v>
+      </c>
+      <c r="H92" s="5">
+        <v>42095</v>
+      </c>
+      <c r="I92" s="5">
+        <v>42095</v>
+      </c>
+      <c r="J92" s="4">
+        <v>54</v>
+      </c>
+      <c r="K92" s="1">
+        <v>9</v>
+      </c>
+      <c r="L92" s="4"/>
+      <c r="M92" s="1">
+        <v>1</v>
+      </c>
+      <c r="N92" s="4"/>
+      <c r="O92" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
+      <c r="A93" s="4"/>
+      <c r="B93" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C93" s="4">
+        <v>69747</v>
+      </c>
+      <c r="D93" s="4">
+        <v>69747</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G93" s="4">
+        <v>1000000</v>
+      </c>
+      <c r="H93" s="5">
+        <v>42071</v>
+      </c>
+      <c r="I93" s="5">
+        <v>42071</v>
+      </c>
+      <c r="J93" s="4">
+        <v>26</v>
+      </c>
+      <c r="K93" s="1">
+        <v>9</v>
+      </c>
+      <c r="L93" s="4"/>
+      <c r="M93" s="1">
+        <v>1</v>
+      </c>
+      <c r="N93" s="4"/>
+      <c r="O93" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
+      <c r="A94" s="1"/>
+      <c r="B94" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C94" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D94" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G94" s="1">
+        <v>2180000</v>
+      </c>
+      <c r="H94" s="3">
+        <v>42095</v>
+      </c>
+      <c r="I94" s="3">
+        <v>42095</v>
+      </c>
+      <c r="J94" s="1">
+        <v>54</v>
+      </c>
+      <c r="K94" s="1">
+        <v>9</v>
+      </c>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1">
+        <v>1</v>
+      </c>
+      <c r="N94" s="1"/>
+      <c r="O94" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
+      <c r="A95" s="1"/>
+      <c r="B95" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C95" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D95" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G95" s="1">
+        <v>2300000</v>
+      </c>
+      <c r="H95" s="3">
+        <v>42071</v>
+      </c>
+      <c r="I95" s="3">
+        <v>42071</v>
+      </c>
+      <c r="J95" s="1">
+        <v>26</v>
+      </c>
+      <c r="K95" s="1">
+        <v>9</v>
+      </c>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1">
+        <v>1</v>
+      </c>
+      <c r="N95" s="1"/>
+      <c r="O95" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
+      <c r="A96" s="1"/>
+      <c r="B96" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C96" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D96" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G96" s="1">
+        <v>2300000</v>
+      </c>
+      <c r="H96" s="3">
+        <v>42095</v>
+      </c>
+      <c r="I96" s="3">
+        <v>42095</v>
+      </c>
+      <c r="J96" s="1">
+        <v>27</v>
+      </c>
+      <c r="K96" s="1">
+        <v>9</v>
+      </c>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1">
+        <v>1</v>
+      </c>
+      <c r="N96" s="1"/>
+      <c r="O96" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
+      <c r="A97" s="1"/>
+      <c r="B97" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C97" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D97" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G97" s="1">
+        <v>2300000</v>
+      </c>
+      <c r="H97" s="3">
+        <v>42073</v>
+      </c>
+      <c r="I97" s="3">
+        <v>42073</v>
+      </c>
+      <c r="J97" s="1">
+        <v>26</v>
+      </c>
+      <c r="K97" s="1">
+        <v>9</v>
+      </c>
+      <c r="L97" s="1"/>
+      <c r="M97" s="1">
+        <v>1</v>
+      </c>
+      <c r="N97" s="1"/>
+      <c r="O97" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
+      <c r="A98" s="1"/>
+      <c r="B98" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C98" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D98" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G98" s="1">
+        <v>2300000</v>
+      </c>
+      <c r="H98" s="3">
+        <v>42095</v>
+      </c>
+      <c r="I98" s="3">
+        <v>42095</v>
+      </c>
+      <c r="J98" s="1">
+        <v>27</v>
+      </c>
+      <c r="K98" s="1">
+        <v>9</v>
+      </c>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1">
+        <v>1</v>
+      </c>
+      <c r="N98" s="1"/>
+      <c r="O98" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
+      <c r="A99" s="1"/>
+      <c r="B99" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C99" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D99" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G99" s="1">
+        <v>2300000</v>
+      </c>
+      <c r="H99" s="3">
+        <v>42073</v>
+      </c>
+      <c r="I99" s="3">
+        <v>42073</v>
+      </c>
+      <c r="J99" s="1">
+        <v>26</v>
+      </c>
+      <c r="K99" s="1">
+        <v>9</v>
+      </c>
+      <c r="L99" s="1"/>
+      <c r="M99" s="1">
+        <v>1</v>
+      </c>
+      <c r="N99" s="1"/>
+      <c r="O99" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
+      <c r="A100" s="1"/>
+      <c r="B100" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C100" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D100" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G100" s="1">
+        <v>2300000</v>
+      </c>
+      <c r="H100" s="3">
+        <v>42095</v>
+      </c>
+      <c r="I100" s="3">
+        <v>42095</v>
+      </c>
+      <c r="J100" s="1">
+        <v>27</v>
+      </c>
+      <c r="K100" s="1">
+        <v>9</v>
+      </c>
+      <c r="L100" s="1"/>
+      <c r="M100" s="1">
+        <v>1</v>
+      </c>
+      <c r="N100" s="1"/>
+      <c r="O100" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C101" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D101" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G101" s="1">
+        <v>2300000</v>
+      </c>
+      <c r="H101" s="3">
+        <v>42073</v>
+      </c>
+      <c r="I101" s="3">
+        <v>42073</v>
+      </c>
+      <c r="J101" s="1">
+        <v>26</v>
+      </c>
+      <c r="K101" s="1">
+        <v>9</v>
+      </c>
+      <c r="L101" s="1"/>
+      <c r="M101" s="1">
+        <v>1</v>
+      </c>
+      <c r="N101" s="1"/>
+      <c r="O101" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15">
+      <c r="A102" s="1"/>
+      <c r="B102" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C102" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D102" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G102" s="1">
+        <v>2300000</v>
+      </c>
+      <c r="H102" s="3">
+        <v>42095</v>
+      </c>
+      <c r="I102" s="3">
+        <v>42095</v>
+      </c>
+      <c r="J102" s="1">
+        <v>27</v>
+      </c>
+      <c r="K102" s="1">
+        <v>9</v>
+      </c>
+      <c r="L102" s="1"/>
+      <c r="M102" s="1">
+        <v>1</v>
+      </c>
+      <c r="N102" s="1"/>
+      <c r="O102" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15">
+      <c r="A103" s="1"/>
+      <c r="B103" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C103" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D103" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G103" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="H103" s="3">
+        <v>42073</v>
+      </c>
+      <c r="I103" s="3">
+        <v>42073</v>
+      </c>
+      <c r="J103" s="1">
+        <v>26</v>
+      </c>
+      <c r="K103" s="1">
+        <v>9</v>
+      </c>
+      <c r="L103" s="1"/>
+      <c r="M103" s="1">
+        <v>1</v>
+      </c>
+      <c r="N103" s="1"/>
+      <c r="O103" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
+      <c r="A104" s="1"/>
+      <c r="B104" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C104" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D104" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E104" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G104" s="1">
+        <v>1180000</v>
+      </c>
+      <c r="H104" s="3">
+        <v>42099</v>
+      </c>
+      <c r="I104" s="3">
+        <v>42099</v>
+      </c>
+      <c r="J104" s="1">
+        <v>26</v>
+      </c>
+      <c r="K104" s="1">
+        <v>9</v>
+      </c>
+      <c r="L104" s="1"/>
+      <c r="M104" s="1">
+        <v>1</v>
+      </c>
+      <c r="N104" s="1"/>
+      <c r="O104" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15">
+      <c r="A105" s="1"/>
+      <c r="B105" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C105" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D105" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E105" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G105" s="1">
+        <v>2180000</v>
+      </c>
+      <c r="H105" s="3">
+        <v>42125</v>
+      </c>
+      <c r="I105" s="3">
+        <v>42125</v>
+      </c>
+      <c r="J105" s="1">
+        <v>54</v>
+      </c>
+      <c r="K105" s="1">
+        <v>9</v>
+      </c>
+      <c r="L105" s="1"/>
+      <c r="M105" s="1">
+        <v>1</v>
+      </c>
+      <c r="N105" s="1"/>
+      <c r="O105" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15">
+      <c r="A106" s="1"/>
+      <c r="B106" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C106" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D106" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E106" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G106" s="1">
+        <v>1380000</v>
+      </c>
+      <c r="H106" s="3">
+        <v>42073</v>
+      </c>
+      <c r="I106" s="3">
+        <v>42073</v>
+      </c>
+      <c r="J106" s="1">
+        <v>26</v>
+      </c>
+      <c r="K106" s="1">
+        <v>9</v>
+      </c>
+      <c r="L106" s="1"/>
+      <c r="M106" s="1">
+        <v>1</v>
+      </c>
+      <c r="N106" s="1"/>
+      <c r="O106" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15">
+      <c r="A107" s="1"/>
+      <c r="B107" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C107" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D107" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E107" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G107" s="1">
+        <v>800000</v>
+      </c>
+      <c r="H107" s="3">
+        <v>42096</v>
+      </c>
+      <c r="I107" s="3">
+        <v>42096</v>
+      </c>
+      <c r="J107" s="1">
+        <v>26</v>
+      </c>
+      <c r="K107" s="1">
+        <v>9</v>
+      </c>
+      <c r="L107" s="1"/>
+      <c r="M107" s="1">
+        <v>1</v>
+      </c>
+      <c r="N107" s="1"/>
+      <c r="O107" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15">
+      <c r="A108" s="1"/>
+      <c r="B108" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C108" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D108" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E108" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G108" s="1">
+        <v>2180000</v>
+      </c>
+      <c r="H108" s="3">
+        <v>42125</v>
+      </c>
+      <c r="I108" s="3">
+        <v>42125</v>
+      </c>
+      <c r="J108" s="1">
+        <v>54</v>
+      </c>
+      <c r="K108" s="1">
+        <v>9</v>
+      </c>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1">
+        <v>1</v>
+      </c>
+      <c r="N108" s="1"/>
+      <c r="O108" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15">
+      <c r="A109" s="1"/>
+      <c r="B109" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C109" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D109" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E109" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G109" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="H109" s="3">
+        <v>42073</v>
+      </c>
+      <c r="I109" s="3">
+        <v>42073</v>
+      </c>
+      <c r="J109" s="1">
+        <v>26</v>
+      </c>
+      <c r="K109" s="1">
+        <v>9</v>
+      </c>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1">
+        <v>1</v>
+      </c>
+      <c r="N109" s="1"/>
+      <c r="O109" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15">
+      <c r="A110" s="1"/>
+      <c r="B110" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C110" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D110" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G110" s="1">
+        <v>1180000</v>
+      </c>
+      <c r="H110" s="3">
+        <v>42099</v>
+      </c>
+      <c r="I110" s="3">
+        <v>42099</v>
+      </c>
+      <c r="J110" s="1">
+        <v>26</v>
+      </c>
+      <c r="K110" s="1">
+        <v>9</v>
+      </c>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1">
+        <v>1</v>
+      </c>
+      <c r="N110" s="1"/>
+      <c r="O110" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15">
+      <c r="A111" s="1"/>
+      <c r="B111" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C111" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D111" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E111" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G111" s="1">
+        <v>2180000</v>
+      </c>
+      <c r="H111" s="3">
+        <v>42125</v>
+      </c>
+      <c r="I111" s="3">
+        <v>42125</v>
+      </c>
+      <c r="J111" s="1">
+        <v>54</v>
+      </c>
+      <c r="K111" s="1">
+        <v>9</v>
+      </c>
+      <c r="L111" s="1"/>
+      <c r="M111" s="1">
+        <v>1</v>
+      </c>
+      <c r="N111" s="1"/>
+      <c r="O111" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15">
+      <c r="A112" s="1"/>
+      <c r="B112" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C112" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D112" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E112" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G112" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="H112" s="3">
+        <v>42073</v>
+      </c>
+      <c r="I112" s="3">
+        <v>42073</v>
+      </c>
+      <c r="J112" s="1">
+        <v>26</v>
+      </c>
+      <c r="K112" s="1">
+        <v>9</v>
+      </c>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1">
+        <v>1</v>
+      </c>
+      <c r="N112" s="1"/>
+      <c r="O112" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15">
+      <c r="A113" s="1"/>
+      <c r="B113" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C113" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D113" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E113" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G113" s="1">
+        <v>1180000</v>
+      </c>
+      <c r="H113" s="3">
+        <v>42106</v>
+      </c>
+      <c r="I113" s="3">
+        <v>42106</v>
+      </c>
+      <c r="J113" s="1">
+        <v>26</v>
+      </c>
+      <c r="K113" s="1">
+        <v>9</v>
+      </c>
+      <c r="L113" s="1"/>
+      <c r="M113" s="1">
+        <v>1</v>
+      </c>
+      <c r="N113" s="1"/>
+      <c r="O113" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15">
+      <c r="A114" s="1"/>
+      <c r="B114" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C114" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D114" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G114" s="1">
+        <v>2180000</v>
+      </c>
+      <c r="H114" s="3">
+        <v>42125</v>
+      </c>
+      <c r="I114" s="3">
+        <v>42125</v>
+      </c>
+      <c r="J114" s="1">
+        <v>54</v>
+      </c>
+      <c r="K114" s="1">
+        <v>9</v>
+      </c>
+      <c r="L114" s="1"/>
+      <c r="M114" s="1">
+        <v>1</v>
+      </c>
+      <c r="N114" s="1"/>
+      <c r="O114" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15">
+      <c r="A115" s="1"/>
+      <c r="B115" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C115" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D115" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E115" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G115" s="1">
+        <v>2300000</v>
+      </c>
+      <c r="H115" s="3">
+        <v>42073</v>
+      </c>
+      <c r="I115" s="3">
+        <v>42073</v>
+      </c>
+      <c r="J115" s="1">
+        <v>26</v>
+      </c>
+      <c r="K115" s="1">
+        <v>9</v>
+      </c>
+      <c r="L115" s="1"/>
+      <c r="M115" s="1">
+        <v>1</v>
+      </c>
+      <c r="N115" s="1"/>
+      <c r="O115" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15">
+      <c r="A116" s="1"/>
+      <c r="B116" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C116" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D116" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E116" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G116" s="1">
+        <v>2300000</v>
+      </c>
+      <c r="H116" s="3">
+        <v>42075</v>
+      </c>
+      <c r="I116" s="3">
+        <v>42075</v>
+      </c>
+      <c r="J116" s="1">
+        <v>26</v>
+      </c>
+      <c r="K116" s="1">
+        <v>9</v>
+      </c>
+      <c r="L116" s="1"/>
+      <c r="M116" s="1">
+        <v>1</v>
+      </c>
+      <c r="N116" s="1"/>
+      <c r="O116" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15">
+      <c r="A117" s="1"/>
+      <c r="B117" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C117" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D117" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E117" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G117" s="1">
+        <v>2300000</v>
+      </c>
+      <c r="H117" s="3">
+        <v>42095</v>
+      </c>
+      <c r="I117" s="3">
+        <v>42095</v>
+      </c>
+      <c r="J117" s="1">
+        <v>27</v>
+      </c>
+      <c r="K117" s="1">
+        <v>9</v>
+      </c>
+      <c r="L117" s="1"/>
+      <c r="M117" s="1">
+        <v>1</v>
+      </c>
+      <c r="N117" s="1"/>
+      <c r="O117" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15">
+      <c r="A118" s="1"/>
+      <c r="B118" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C118" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D118" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E118" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G118" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="H118" s="3">
+        <v>42075</v>
+      </c>
+      <c r="I118" s="3">
+        <v>42075</v>
+      </c>
+      <c r="J118" s="1">
+        <v>26</v>
+      </c>
+      <c r="K118" s="1">
+        <v>9</v>
+      </c>
+      <c r="L118" s="1"/>
+      <c r="M118" s="1">
+        <v>1</v>
+      </c>
+      <c r="N118" s="1"/>
+      <c r="O118" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15">
+      <c r="A119" s="1"/>
+      <c r="B119" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C119" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D119" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E119" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="G119" s="16">
+        <v>1300000</v>
+      </c>
+      <c r="H119" s="3">
+        <v>42099</v>
+      </c>
+      <c r="I119" s="3">
+        <v>42099</v>
+      </c>
+      <c r="J119" s="1">
+        <v>26</v>
+      </c>
+      <c r="K119" s="1">
+        <v>9</v>
+      </c>
+      <c r="L119" s="1"/>
+      <c r="M119" s="1">
+        <v>1</v>
+      </c>
+      <c r="N119" s="1"/>
+      <c r="O119" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15">
+      <c r="A120" s="1"/>
+      <c r="B120" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C120" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D120" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G120" s="1">
+        <v>2300000</v>
+      </c>
+      <c r="H120" s="3">
+        <v>42071</v>
+      </c>
+      <c r="I120" s="3">
+        <v>42071</v>
+      </c>
+      <c r="J120" s="1">
+        <v>26</v>
+      </c>
+      <c r="K120" s="1">
+        <v>9</v>
+      </c>
+      <c r="L120" s="1"/>
+      <c r="M120" s="1">
+        <v>1</v>
+      </c>
+      <c r="N120" s="1"/>
+      <c r="O120" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15">
+      <c r="A121" s="1"/>
+      <c r="B121" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C121" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D121" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G121" s="1">
+        <v>2300000</v>
+      </c>
+      <c r="H121" s="3">
+        <v>42095</v>
+      </c>
+      <c r="I121" s="3">
+        <v>42095</v>
+      </c>
+      <c r="J121" s="1">
+        <v>27</v>
+      </c>
+      <c r="K121" s="1">
+        <v>9</v>
+      </c>
+      <c r="L121" s="1"/>
+      <c r="M121" s="1">
+        <v>1</v>
+      </c>
+      <c r="N121" s="1"/>
+      <c r="O121" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15">
+      <c r="A122" s="4"/>
+      <c r="B122" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C122" s="4">
+        <v>69747</v>
+      </c>
+      <c r="D122" s="4">
+        <v>69747</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="G122" s="4">
+        <v>1700000</v>
+      </c>
+      <c r="H122" s="5">
+        <v>42071</v>
+      </c>
+      <c r="I122" s="5">
+        <v>42071</v>
+      </c>
+      <c r="J122" s="4">
+        <v>26</v>
+      </c>
+      <c r="K122" s="1">
+        <v>9</v>
+      </c>
+      <c r="L122" s="4"/>
+      <c r="M122" s="1">
+        <v>1</v>
+      </c>
+      <c r="N122" s="4"/>
+      <c r="O122" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15">
+      <c r="A123" s="1"/>
+      <c r="B123" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C123" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D123" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E123" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G123" s="1">
+        <v>2300000</v>
+      </c>
+      <c r="H123" s="3">
+        <v>42095</v>
+      </c>
+      <c r="I123" s="3">
+        <v>42095</v>
+      </c>
+      <c r="J123" s="1">
+        <v>27</v>
+      </c>
+      <c r="K123" s="1">
+        <v>9</v>
+      </c>
+      <c r="L123" s="1"/>
+      <c r="M123" s="1">
+        <v>1</v>
+      </c>
+      <c r="N123" s="1"/>
+      <c r="O123" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15">
+      <c r="A124" s="1"/>
+      <c r="B124" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C124" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D124" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G124" s="1">
+        <v>2300000</v>
+      </c>
+      <c r="H124" s="3">
+        <v>42073</v>
+      </c>
+      <c r="I124" s="3">
+        <v>42073</v>
+      </c>
+      <c r="J124" s="1">
+        <v>26</v>
+      </c>
+      <c r="K124" s="1">
+        <v>9</v>
+      </c>
+      <c r="L124" s="1"/>
+      <c r="M124" s="1">
+        <v>1</v>
+      </c>
+      <c r="N124" s="1"/>
+      <c r="O124" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15">
+      <c r="A125" s="1"/>
+      <c r="B125" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C125" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D125" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E125" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G125" s="1">
+        <v>2300000</v>
+      </c>
+      <c r="H125" s="3">
+        <v>42095</v>
+      </c>
+      <c r="I125" s="3">
+        <v>42095</v>
+      </c>
+      <c r="J125" s="1">
+        <v>27</v>
+      </c>
+      <c r="K125" s="1">
+        <v>9</v>
+      </c>
+      <c r="L125" s="1"/>
+      <c r="M125" s="1">
+        <v>1</v>
+      </c>
+      <c r="N125" s="1"/>
+      <c r="O125" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15">
+      <c r="A126" s="1"/>
+      <c r="B126" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C126" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D126" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E126" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G126" s="1">
+        <v>2300000</v>
+      </c>
+      <c r="H126" s="3">
+        <v>42073</v>
+      </c>
+      <c r="I126" s="3">
+        <v>42073</v>
+      </c>
+      <c r="J126" s="1">
+        <v>26</v>
+      </c>
+      <c r="K126" s="1">
+        <v>9</v>
+      </c>
+      <c r="L126" s="1"/>
+      <c r="M126" s="1">
+        <v>1</v>
+      </c>
+      <c r="N126" s="1"/>
+      <c r="O126" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15">
+      <c r="A127" s="1"/>
+      <c r="B127" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C127" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D127" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G127" s="1">
+        <v>2300000</v>
+      </c>
+      <c r="H127" s="3">
+        <v>42095</v>
+      </c>
+      <c r="I127" s="3">
+        <v>42095</v>
+      </c>
+      <c r="J127" s="1">
+        <v>27</v>
+      </c>
+      <c r="K127" s="1">
+        <v>9</v>
+      </c>
+      <c r="L127" s="1"/>
+      <c r="M127" s="1">
+        <v>1</v>
+      </c>
+      <c r="N127" s="1"/>
+      <c r="O127" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15">
+      <c r="A128" s="1"/>
+      <c r="B128" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C128" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D128" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E128" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G128" s="1">
+        <v>2300000</v>
+      </c>
+      <c r="H128" s="3">
+        <v>42073</v>
+      </c>
+      <c r="I128" s="3">
+        <v>42073</v>
+      </c>
+      <c r="J128" s="1">
+        <v>26</v>
+      </c>
+      <c r="K128" s="1">
+        <v>9</v>
+      </c>
+      <c r="L128" s="1"/>
+      <c r="M128" s="1">
+        <v>1</v>
+      </c>
+      <c r="N128" s="1"/>
+      <c r="O128" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15">
+      <c r="A129" s="1"/>
+      <c r="B129" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C129" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D129" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E129" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G129" s="1">
+        <v>2300000</v>
+      </c>
+      <c r="H129" s="3">
+        <v>42095</v>
+      </c>
+      <c r="I129" s="3">
+        <v>42095</v>
+      </c>
+      <c r="J129" s="1">
+        <v>27</v>
+      </c>
+      <c r="K129" s="1">
+        <v>9</v>
+      </c>
+      <c r="L129" s="1"/>
+      <c r="M129" s="1">
+        <v>1</v>
+      </c>
+      <c r="N129" s="1"/>
+      <c r="O129" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15">
+      <c r="A130" s="1"/>
+      <c r="B130" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C130" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D130" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E130" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G130" s="12">
+        <v>2300000</v>
+      </c>
+      <c r="H130" s="3">
+        <v>42073</v>
+      </c>
+      <c r="I130" s="3">
+        <v>42073</v>
+      </c>
+      <c r="J130" s="1">
+        <v>26</v>
+      </c>
+      <c r="K130" s="1">
+        <v>9</v>
+      </c>
+      <c r="L130" s="1"/>
+      <c r="M130" s="1">
+        <v>1</v>
+      </c>
+      <c r="N130" s="1"/>
+      <c r="O130" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15">
+      <c r="A131" s="1"/>
+      <c r="B131" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C131" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D131" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G131" s="1">
+        <v>2300000</v>
+      </c>
+      <c r="H131" s="3">
+        <v>42075</v>
+      </c>
+      <c r="I131" s="3">
+        <v>42075</v>
+      </c>
+      <c r="J131" s="1">
+        <v>26</v>
+      </c>
+      <c r="K131" s="1">
+        <v>9</v>
+      </c>
+      <c r="L131" s="1"/>
+      <c r="M131" s="1">
+        <v>1</v>
+      </c>
+      <c r="N131" s="1"/>
+      <c r="O131" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15">
+      <c r="A132" s="1"/>
+      <c r="B132" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C132" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D132" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="G132" s="1">
+        <v>2300000</v>
+      </c>
+      <c r="H132" s="3">
+        <v>42095</v>
+      </c>
+      <c r="I132" s="3">
+        <v>42095</v>
+      </c>
+      <c r="J132" s="1">
+        <v>27</v>
+      </c>
+      <c r="K132" s="1">
+        <v>9</v>
+      </c>
+      <c r="L132" s="1"/>
+      <c r="M132" s="1">
+        <v>1</v>
+      </c>
+      <c r="N132" s="1"/>
+      <c r="O132" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15">
+      <c r="A133" s="26"/>
+      <c r="B133" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="C133" s="26">
+        <v>69747</v>
+      </c>
+      <c r="D133" s="26">
+        <v>69747</v>
+      </c>
+      <c r="E133" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="F133" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="G133" s="26">
+        <v>2300000</v>
+      </c>
+      <c r="H133" s="27">
+        <v>42075</v>
+      </c>
+      <c r="I133" s="27">
+        <v>42075</v>
+      </c>
+      <c r="J133" s="26">
+        <v>26</v>
+      </c>
+      <c r="K133" s="1">
+        <v>9</v>
+      </c>
+      <c r="L133" s="26"/>
+      <c r="M133" s="1">
+        <v>1</v>
+      </c>
+      <c r="N133" s="26"/>
+      <c r="O133" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15">
+      <c r="A134" s="1"/>
+      <c r="B134" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C134" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D134" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E134" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G134" s="12">
+        <v>1500000</v>
+      </c>
+      <c r="H134" s="3">
+        <v>42113</v>
+      </c>
+      <c r="I134" s="3">
+        <v>42113</v>
+      </c>
+      <c r="J134" s="1">
+        <v>26</v>
+      </c>
+      <c r="K134" s="1">
+        <v>9</v>
+      </c>
+      <c r="L134" s="1"/>
+      <c r="M134" s="1">
+        <v>1</v>
+      </c>
+      <c r="N134" s="1"/>
+      <c r="O134" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15">
+      <c r="A135" s="1"/>
+      <c r="B135" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C135" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D135" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G135" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="H135" s="3">
+        <v>42117</v>
+      </c>
+      <c r="I135" s="3">
+        <v>42117</v>
+      </c>
+      <c r="J135" s="1">
+        <v>26</v>
+      </c>
+      <c r="K135" s="1">
+        <v>9</v>
+      </c>
+      <c r="L135" s="1"/>
+      <c r="M135" s="1">
+        <v>1</v>
+      </c>
+      <c r="N135" s="1"/>
+      <c r="O135" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15">
+      <c r="A136" s="1"/>
+      <c r="B136" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C136" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D136" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E136" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G136" s="1">
+        <v>2800000</v>
+      </c>
+      <c r="H136" s="3">
+        <v>42117</v>
+      </c>
+      <c r="I136" s="3">
+        <v>42117</v>
+      </c>
+      <c r="J136" s="1">
+        <v>26</v>
+      </c>
+      <c r="K136" s="1">
+        <v>9</v>
+      </c>
+      <c r="L136" s="1"/>
+      <c r="M136" s="1">
+        <v>1</v>
+      </c>
+      <c r="N136" s="1"/>
+      <c r="O136" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15">
+      <c r="A137" s="1"/>
+      <c r="B137" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C137" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D137" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E137" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G137" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="H137" s="3">
+        <v>42117</v>
+      </c>
+      <c r="I137" s="3">
+        <v>42117</v>
+      </c>
+      <c r="J137" s="1">
+        <v>26</v>
+      </c>
+      <c r="K137" s="1">
+        <v>9</v>
+      </c>
+      <c r="L137" s="1"/>
+      <c r="M137" s="1">
+        <v>1</v>
+      </c>
+      <c r="N137" s="1"/>
+      <c r="O137" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15">
+      <c r="A138" s="1"/>
+      <c r="B138" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C138" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D138" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G138" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="H138" s="3">
+        <v>42129</v>
+      </c>
+      <c r="I138" s="3">
+        <v>42129</v>
+      </c>
+      <c r="J138" s="1">
+        <v>26</v>
+      </c>
+      <c r="K138" s="1">
+        <v>9</v>
+      </c>
+      <c r="L138" s="1"/>
+      <c r="M138" s="1">
+        <v>1</v>
+      </c>
+      <c r="N138" s="1"/>
+      <c r="O138" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15">
+      <c r="A139" s="1"/>
+      <c r="B139" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C139" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D139" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E139" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G139" s="1">
+        <v>2000000</v>
+      </c>
+      <c r="H139" s="3">
+        <v>42129</v>
+      </c>
+      <c r="I139" s="3">
+        <v>42129</v>
+      </c>
+      <c r="J139" s="1">
+        <v>26</v>
+      </c>
+      <c r="K139" s="1">
+        <v>9</v>
+      </c>
+      <c r="L139" s="1"/>
+      <c r="M139" s="1">
+        <v>1</v>
+      </c>
+      <c r="N139" s="1"/>
+      <c r="O139" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15">
+      <c r="A140" s="1"/>
+      <c r="B140" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C140" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D140" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G140" s="1">
+        <v>1000000</v>
+      </c>
+      <c r="H140" s="3">
+        <v>42129</v>
+      </c>
+      <c r="I140" s="3">
+        <v>42129</v>
+      </c>
+      <c r="J140" s="1">
+        <v>26</v>
+      </c>
+      <c r="K140" s="1">
+        <v>9</v>
+      </c>
+      <c r="L140" s="1"/>
+      <c r="M140" s="1">
+        <v>1</v>
+      </c>
+      <c r="N140" s="1"/>
+      <c r="O140" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15">
+      <c r="A141" s="1"/>
+      <c r="B141" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C141" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D141" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E141" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G141" s="1">
+        <v>2300000</v>
+      </c>
+      <c r="H141" s="3">
+        <v>42078</v>
+      </c>
+      <c r="I141" s="3">
+        <v>42078</v>
+      </c>
+      <c r="J141" s="1">
+        <v>26</v>
+      </c>
+      <c r="K141" s="1">
+        <v>9</v>
+      </c>
+      <c r="L141" s="1"/>
+      <c r="M141" s="1">
+        <v>1</v>
+      </c>
+      <c r="N141" s="1"/>
+      <c r="O141" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15">
+      <c r="A142" s="1"/>
+      <c r="B142" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C142" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D142" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E142" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G142" s="1">
+        <v>2300000</v>
+      </c>
+      <c r="H142" s="3">
+        <v>42078</v>
+      </c>
+      <c r="I142" s="3">
+        <v>42078</v>
+      </c>
+      <c r="J142" s="1">
+        <v>26</v>
+      </c>
+      <c r="K142" s="1">
+        <v>9</v>
+      </c>
+      <c r="L142" s="1"/>
+      <c r="M142" s="1">
+        <v>1</v>
+      </c>
+      <c r="N142" s="1"/>
+      <c r="O142" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15">
+      <c r="A143" s="1"/>
+      <c r="B143" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C143" s="1">
+        <v>69747</v>
+      </c>
+      <c r="D143" s="1">
+        <v>69747</v>
+      </c>
+      <c r="E143" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="G143" s="1">
+        <v>2100000</v>
+      </c>
+      <c r="H143" s="3">
+        <v>42085</v>
+      </c>
+      <c r="I143" s="3">
+        <v>42085</v>
+      </c>
+      <c r="J143" s="1">
+        <v>26</v>
+      </c>
+      <c r="K143" s="1">
+        <v>9</v>
+      </c>
+      <c r="L143" s="1"/>
+      <c r="M143" s="1">
+        <v>1</v>
+      </c>
+      <c r="N143" s="1"/>
+      <c r="O143" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2948,8 +8919,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2962,126 +8933,126 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="3" t="s">
+      <c r="B1" s="21"/>
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="5"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="24"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="7"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="21"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="17" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="9" t="s">
+      <c r="D3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="9" t="s">
+      <c r="G3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="17" t="s">
         <v>10</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="9" t="s">
+      <c r="J3" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="L3" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="17" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="18"/>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
       <c r="F4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
       <c r="I4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C5" s="1">
         <v>2300000</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="3">
         <v>42071</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
-      <c r="G5" s="12"/>
+      <c r="G5" s="3"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
-      <c r="J5" s="12"/>
+      <c r="J5" s="3"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1">
         <v>2300000</v>
@@ -3095,12 +9066,12 @@
         <v>2</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C6" s="1">
         <v>1700000</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="3">
         <v>42071</v>
       </c>
       <c r="E6" s="1"/>
@@ -3122,12 +9093,12 @@
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C7" s="1">
         <v>2300000</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="3">
         <v>42073</v>
       </c>
       <c r="E7" s="1"/>
@@ -3149,17 +9120,17 @@
         <v>4</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C8" s="1">
         <v>2300000</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="3">
         <v>42073</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-      <c r="G8" s="12"/>
+      <c r="G8" s="3"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -3176,12 +9147,12 @@
         <v>5</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C9" s="1">
         <v>2300000</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="3">
         <v>42073</v>
       </c>
       <c r="E9" s="1"/>
@@ -3198,45 +9169,45 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="24" customFormat="1">
-      <c r="A10" s="21">
+    <row r="10" spans="1:13" s="15" customFormat="1">
+      <c r="A10" s="12">
         <v>6</v>
       </c>
-      <c r="B10" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="21">
+      <c r="B10" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="12">
         <v>2300000</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="3">
         <v>42073</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="23"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="14"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>7</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C11" s="1">
         <v>2300000</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="3">
         <v>42075</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
-      <c r="G11" s="12"/>
+      <c r="G11" s="3"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -3253,13 +9224,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="12"/>
+      <c r="D12" s="3"/>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
-      <c r="G12" s="12"/>
+      <c r="G12" s="3"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -3267,45 +9238,45 @@
       <c r="L12" s="1"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="1:13" s="24" customFormat="1">
-      <c r="A13" s="21">
-        <v>9</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="21">
+    <row r="13" spans="1:13" s="15" customFormat="1">
+      <c r="A13" s="12">
+        <v>9</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="12">
         <v>1500000</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="3">
         <v>42113</v>
       </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="23"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="14"/>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>10</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C14" s="1">
         <v>1000000</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="3">
         <v>42117</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
-      <c r="G14" s="12"/>
+      <c r="G14" s="3"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -3323,12 +9294,12 @@
       <c r="C15" s="1">
         <v>2800000</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="3">
         <v>42117</v>
       </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
-      <c r="G15" s="12"/>
+      <c r="G15" s="3"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -3341,17 +9312,17 @@
         <v>12</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" s="1">
         <v>2000000</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="3">
         <v>42117</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
-      <c r="G16" s="12"/>
+      <c r="G16" s="3"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -3364,17 +9335,17 @@
         <v>13</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C17" s="1">
         <v>1000000</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="3">
         <v>42129</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
-      <c r="G17" s="12"/>
+      <c r="G17" s="3"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -3387,17 +9358,17 @@
         <v>14</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C18" s="1">
         <v>2000000</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="3">
         <v>42129</v>
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
-      <c r="G18" s="12"/>
+      <c r="G18" s="3"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -3410,12 +9381,12 @@
         <v>15</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C19" s="1">
         <v>1000000</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="3">
         <v>42129</v>
       </c>
       <c r="E19" s="1"/>
@@ -3433,17 +9404,17 @@
         <v>16</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C20" s="1">
         <v>2300000</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="3">
         <v>42078</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
-      <c r="G20" s="12"/>
+      <c r="G20" s="3"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -3456,12 +9427,12 @@
         <v>17</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C21" s="1">
         <v>2300000</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="3">
         <v>42078</v>
       </c>
       <c r="E21" s="1"/>
@@ -3479,12 +9450,12 @@
         <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C22" s="1">
         <v>2100000</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="3">
         <v>42085</v>
       </c>
       <c r="E22" s="1"/>
@@ -3503,7 +9474,7 @@
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
-      <c r="D23" s="12"/>
+      <c r="D23" s="3"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
@@ -3520,7 +9491,7 @@
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="12"/>
+      <c r="D24" s="3"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -3532,12 +9503,12 @@
       <c r="M24" s="2"/>
     </row>
     <row r="25" spans="1:13">
-      <c r="A25" s="25">
+      <c r="A25" s="16">
         <v>21</v>
       </c>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="12"/>
+      <c r="D25" s="3"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
@@ -3549,12 +9520,12 @@
       <c r="M25" s="2"/>
     </row>
     <row r="26" spans="1:13">
-      <c r="A26" s="25">
+      <c r="A26" s="16">
         <v>22</v>
       </c>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="12"/>
+      <c r="D26" s="3"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
@@ -3566,15 +9537,15 @@
       <c r="M26" s="2"/>
     </row>
     <row r="27" spans="1:13">
-      <c r="A27" s="25">
+      <c r="A27" s="16">
         <v>23</v>
       </c>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="12"/>
+      <c r="D27" s="3"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="12"/>
+      <c r="G27" s="3"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -3583,15 +9554,15 @@
       <c r="M27" s="2"/>
     </row>
     <row r="28" spans="1:13">
-      <c r="A28" s="25">
+      <c r="A28" s="16">
         <v>24</v>
       </c>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
-      <c r="D28" s="12"/>
+      <c r="D28" s="3"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="12"/>
+      <c r="G28" s="3"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -3600,15 +9571,15 @@
       <c r="M28" s="2"/>
     </row>
     <row r="29" spans="1:13">
-      <c r="A29" s="25">
+      <c r="A29" s="16">
         <v>25</v>
       </c>
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
-      <c r="D29" s="12"/>
+      <c r="D29" s="3"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="12"/>
+      <c r="G29" s="3"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -3617,15 +9588,15 @@
       <c r="M29" s="2"/>
     </row>
     <row r="30" spans="1:13">
-      <c r="A30" s="25">
+      <c r="A30" s="16">
         <v>26</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
-      <c r="D30" s="12"/>
+      <c r="D30" s="3"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="12"/>
+      <c r="G30" s="3"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -3634,12 +9605,12 @@
       <c r="M30" s="2"/>
     </row>
     <row r="31" spans="1:13">
-      <c r="A31" s="25">
+      <c r="A31" s="16">
         <v>27</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
-      <c r="D31" s="12"/>
+      <c r="D31" s="3"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
@@ -3651,12 +9622,12 @@
       <c r="M31" s="2"/>
     </row>
     <row r="32" spans="1:13">
-      <c r="A32" s="25">
+      <c r="A32" s="16">
         <v>28</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
-      <c r="D32" s="12"/>
+      <c r="D32" s="3"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
@@ -3668,15 +9639,15 @@
       <c r="M32" s="2"/>
     </row>
     <row r="33" spans="1:13">
-      <c r="A33" s="25">
+      <c r="A33" s="16">
         <v>29</v>
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
-      <c r="D33" s="12"/>
+      <c r="D33" s="3"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="12"/>
+      <c r="G33" s="3"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -3686,21 +9657,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="I2:M2"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="M3:M4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="G3:G4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/01.Documents/Mẫu giấy tờ/Danh_sach_hoc_phi.xlsx
+++ b/01.Documents/Mẫu giấy tờ/Danh_sach_hoc_phi.xlsx
@@ -502,14 +502,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -529,8 +528,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -841,106 +841,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="25"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="20" t="s">
+      <c r="A2" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="20" t="s">
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="21"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="22"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="19" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="17" t="s">
+      <c r="D3" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="19" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="17" t="s">
+      <c r="G3" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="19" t="s">
         <v>10</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="17" t="s">
+      <c r="J3" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="M3" s="19" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
       <c r="F4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
       <c r="I4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1">
@@ -1514,21 +1514,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -1553,106 +1553,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="25"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="20" t="s">
+      <c r="A2" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="22"/>
+      <c r="C2" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="20" t="s">
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="21"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="22"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="19" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="17" t="s">
+      <c r="D3" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="19" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="17" t="s">
+      <c r="G3" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="19" t="s">
         <v>10</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="17" t="s">
+      <c r="J3" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="M3" s="19" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
       <c r="F4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
       <c r="I4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1">
@@ -2094,21 +2094,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2132,106 +2132,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="25"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="20" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="20" t="s">
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="21"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="22"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="19" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="17" t="s">
+      <c r="D3" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="19" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="17" t="s">
+      <c r="G3" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="19" t="s">
         <v>10</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="17" t="s">
+      <c r="J3" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="M3" s="19" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
       <c r="F4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
       <c r="I4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1">
@@ -2998,21 +2998,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3022,8 +3022,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O143"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:O143"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:O143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3444,7 +3444,9 @@
       <c r="I10" s="3">
         <v>42005</v>
       </c>
-      <c r="J10" s="1"/>
+      <c r="J10" s="1">
+        <v>27</v>
+      </c>
       <c r="K10" s="1">
         <v>9</v>
       </c>
@@ -5221,42 +5223,42 @@
       </c>
     </row>
     <row r="54" spans="1:15">
-      <c r="A54" s="26"/>
-      <c r="B54" s="26" t="s">
+      <c r="A54" s="17"/>
+      <c r="B54" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="C54" s="26">
-        <v>69747</v>
-      </c>
-      <c r="D54" s="26">
-        <v>69747</v>
-      </c>
-      <c r="E54" s="26" t="s">
+      <c r="C54" s="17">
+        <v>69747</v>
+      </c>
+      <c r="D54" s="17">
+        <v>69747</v>
+      </c>
+      <c r="E54" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="F54" s="26" t="s">
+      <c r="F54" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="G54" s="26">
+      <c r="G54" s="17">
         <v>2200000</v>
       </c>
-      <c r="H54" s="27">
+      <c r="H54" s="18">
         <v>42114</v>
       </c>
-      <c r="I54" s="27">
+      <c r="I54" s="18">
         <v>42114</v>
       </c>
-      <c r="J54" s="26">
+      <c r="J54" s="17">
         <v>26</v>
       </c>
       <c r="K54" s="1">
         <v>9</v>
       </c>
-      <c r="L54" s="26"/>
+      <c r="L54" s="17"/>
       <c r="M54" s="1">
         <v>1</v>
       </c>
-      <c r="N54" s="26"/>
+      <c r="N54" s="17"/>
       <c r="O54" s="1">
         <v>1</v>
       </c>
@@ -5281,10 +5283,10 @@
       <c r="G55" s="12">
         <v>2200000</v>
       </c>
-      <c r="H55" s="27">
+      <c r="H55" s="18">
         <v>42114</v>
       </c>
-      <c r="I55" s="27">
+      <c r="I55" s="18">
         <v>42114</v>
       </c>
       <c r="J55" s="12">
@@ -5713,42 +5715,42 @@
       </c>
     </row>
     <row r="66" spans="1:15">
-      <c r="A66" s="26"/>
-      <c r="B66" s="26" t="s">
+      <c r="A66" s="17"/>
+      <c r="B66" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="C66" s="26">
-        <v>69747</v>
-      </c>
-      <c r="D66" s="26">
-        <v>69747</v>
-      </c>
-      <c r="E66" s="26" t="s">
+      <c r="C66" s="17">
+        <v>69747</v>
+      </c>
+      <c r="D66" s="17">
+        <v>69747</v>
+      </c>
+      <c r="E66" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="F66" s="26" t="s">
+      <c r="F66" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="G66" s="26">
+      <c r="G66" s="17">
         <v>1300000</v>
       </c>
-      <c r="H66" s="27">
+      <c r="H66" s="18">
         <v>42075</v>
       </c>
-      <c r="I66" s="27">
+      <c r="I66" s="18">
         <v>42075</v>
       </c>
-      <c r="J66" s="26">
+      <c r="J66" s="17">
         <v>26</v>
       </c>
       <c r="K66" s="1">
         <v>9</v>
       </c>
-      <c r="L66" s="26"/>
+      <c r="L66" s="17"/>
       <c r="M66" s="1">
         <v>1</v>
       </c>
-      <c r="N66" s="26"/>
+      <c r="N66" s="17"/>
       <c r="O66" s="1">
         <v>1</v>
       </c>
@@ -8460,42 +8462,42 @@
       </c>
     </row>
     <row r="133" spans="1:15">
-      <c r="A133" s="26"/>
-      <c r="B133" s="26" t="s">
+      <c r="A133" s="17"/>
+      <c r="B133" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="C133" s="26">
-        <v>69747</v>
-      </c>
-      <c r="D133" s="26">
-        <v>69747</v>
-      </c>
-      <c r="E133" s="26" t="s">
+      <c r="C133" s="17">
+        <v>69747</v>
+      </c>
+      <c r="D133" s="17">
+        <v>69747</v>
+      </c>
+      <c r="E133" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="F133" s="26" t="s">
+      <c r="F133" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="G133" s="26">
+      <c r="G133" s="17">
         <v>2300000</v>
       </c>
-      <c r="H133" s="27">
+      <c r="H133" s="18">
         <v>42075</v>
       </c>
-      <c r="I133" s="27">
+      <c r="I133" s="18">
         <v>42075</v>
       </c>
-      <c r="J133" s="26">
+      <c r="J133" s="17">
         <v>26</v>
       </c>
       <c r="K133" s="1">
         <v>9</v>
       </c>
-      <c r="L133" s="26"/>
+      <c r="L133" s="17"/>
       <c r="M133" s="1">
         <v>1</v>
       </c>
-      <c r="N133" s="26"/>
+      <c r="N133" s="17"/>
       <c r="O133" s="1">
         <v>1</v>
       </c>
@@ -8933,106 +8935,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="22" t="s">
+      <c r="B1" s="22"/>
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="25"/>
     </row>
     <row r="2" spans="1:13">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="20" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="20" t="s">
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="21"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="22"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="19" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="17" t="s">
+      <c r="D3" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="19" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" s="17" t="s">
+      <c r="G3" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="19" t="s">
         <v>10</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="K3" s="17" t="s">
+      <c r="J3" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="M3" s="19" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:13">
-      <c r="A4" s="18"/>
-      <c r="B4" s="18"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
       <c r="F4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
       <c r="I4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="1">
@@ -9657,21 +9659,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="J3:J4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:M1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:H2"/>
+    <mergeCell ref="I2:M2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="D3:D4"/>
     <mergeCell ref="E3:E4"/>
     <mergeCell ref="G3:G4"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:M1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:H2"/>
-    <mergeCell ref="I2:M2"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="J3:J4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
